--- a/piloto_seguimiento/pres_146_pa.xlsx
+++ b/piloto_seguimiento/pres_146_pa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="801">
   <si>
     <t>id</t>
   </si>
@@ -2319,6 +2319,117 @@
   </si>
   <si>
     <t>L01XX52</t>
+  </si>
+  <si>
+    <t>nexavar 200 mg caja con 112 comprimidos</t>
+  </si>
+  <si>
+    <t>sorafenib</t>
+  </si>
+  <si>
+    <t>nexavar</t>
+  </si>
+  <si>
+    <t>nexavar 112 comprimidos caja tesilato de sorafenib 200 mg</t>
+  </si>
+  <si>
+    <t>nexavar 200mg com caja con 112</t>
+  </si>
+  <si>
+    <t>nexavar 200 mg caja con 60 comprimidos</t>
+  </si>
+  <si>
+    <t>soranib 200mg frasco de 30 tabletas</t>
+  </si>
+  <si>
+    <t>soranib</t>
+  </si>
+  <si>
+    <t>tableta nexavar 200mg</t>
+  </si>
+  <si>
+    <t>tableta nexavar</t>
+  </si>
+  <si>
+    <t>sorafenat 200mg frasco de 120 comprimidos</t>
+  </si>
+  <si>
+    <t>sorafenat</t>
+  </si>
+  <si>
+    <t>sorafenat 200mg frasco de 30 comprimidos</t>
+  </si>
+  <si>
+    <t>nexavar 200mg tira de 60 tabletas</t>
+  </si>
+  <si>
+    <t>shilfenib 200 mg frasco de 120 tabletas</t>
+  </si>
+  <si>
+    <t>shilfenib</t>
+  </si>
+  <si>
+    <t>sorepto 200mg frasco de 30 tabletas</t>
+  </si>
+  <si>
+    <t>sorepto</t>
+  </si>
+  <si>
+    <t>sorafenib mylan</t>
+  </si>
+  <si>
+    <t>nexavar 200 mg com rev ct bl al  al x 60</t>
+  </si>
+  <si>
+    <t>nexavar f.c.tab 200mgtab bt x 112blist 4x28 en blister ppalu en blister ppalu</t>
+  </si>
+  <si>
+    <t>nexavar f.c.tab</t>
+  </si>
+  <si>
+    <t>revamox f.c.tab 200mgtab bt x 112 tabs blisters alualu</t>
+  </si>
+  <si>
+    <t>revamox f.c.tab</t>
+  </si>
+  <si>
+    <t>sorafenibsandoz f.c.tab 200mgtab btx112 pastillas en blister aluminiopvcpepvdc</t>
+  </si>
+  <si>
+    <t>sorafenibsandoz f.c.tab</t>
+  </si>
+  <si>
+    <t>sorafenibteva f.c.tab 200mgtab btx112x1 comprimidos en blister opaalupvcalu</t>
+  </si>
+  <si>
+    <t>sorafenibteva f.c.tab</t>
+  </si>
+  <si>
+    <t>sorafenibteva f.c.tab 200mgtab btx112x1 comprimidos en blister pvcaclarpvcalu</t>
+  </si>
+  <si>
+    <t>sorafenib sandoz 200 mg comprimidos recubiertos con pelicula</t>
+  </si>
+  <si>
+    <t>sorafenib sandoz</t>
+  </si>
+  <si>
+    <t>sorafenib teva 200 mg comprimidos recubiertos con pelicula</t>
+  </si>
+  <si>
+    <t>sorafenib teva</t>
+  </si>
+  <si>
+    <t>sorafenib zentiva 200 mg comprimidos recubiertos con pelicula</t>
+  </si>
+  <si>
+    <t>sorafenib zentiva</t>
+  </si>
+  <si>
+    <t>weldinin 200 mg comprimidos recubiertos con pelicula</t>
+  </si>
+  <si>
+    <t>weldinin</t>
   </si>
 </sst>
 </file>
@@ -2656,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P609"/>
+  <dimension ref="A1:P654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B629" workbookViewId="0">
+      <selection activeCell="P653" sqref="P653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33119,6 +33230,2256 @@
         <v>42</v>
       </c>
     </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>20101</v>
+      </c>
+      <c r="B610" t="s">
+        <v>764</v>
+      </c>
+      <c r="C610">
+        <v>73000</v>
+      </c>
+      <c r="D610" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E610" t="s">
+        <v>16</v>
+      </c>
+      <c r="F610" t="s">
+        <v>765</v>
+      </c>
+      <c r="G610" t="s">
+        <v>765</v>
+      </c>
+      <c r="H610">
+        <v>1</v>
+      </c>
+      <c r="I610" t="s">
+        <v>18</v>
+      </c>
+      <c r="J610" t="s">
+        <v>19</v>
+      </c>
+      <c r="K610" t="s">
+        <v>20</v>
+      </c>
+      <c r="L610" t="s">
+        <v>766</v>
+      </c>
+      <c r="M610">
+        <v>200</v>
+      </c>
+      <c r="N610" t="s">
+        <v>22</v>
+      </c>
+      <c r="O610" t="s">
+        <v>38</v>
+      </c>
+      <c r="P610">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>20102</v>
+      </c>
+      <c r="B611" t="s">
+        <v>767</v>
+      </c>
+      <c r="C611">
+        <v>73287</v>
+      </c>
+      <c r="D611" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E611" t="s">
+        <v>25</v>
+      </c>
+      <c r="F611" t="s">
+        <v>765</v>
+      </c>
+      <c r="G611" t="s">
+        <v>765</v>
+      </c>
+      <c r="H611">
+        <v>1</v>
+      </c>
+      <c r="I611" t="s">
+        <v>18</v>
+      </c>
+      <c r="J611" t="s">
+        <v>26</v>
+      </c>
+      <c r="K611" t="s">
+        <v>20</v>
+      </c>
+      <c r="L611" t="s">
+        <v>766</v>
+      </c>
+      <c r="M611">
+        <v>200</v>
+      </c>
+      <c r="N611" t="s">
+        <v>22</v>
+      </c>
+      <c r="O611" t="s">
+        <v>38</v>
+      </c>
+      <c r="P611">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>20103</v>
+      </c>
+      <c r="B612" t="s">
+        <v>768</v>
+      </c>
+      <c r="C612">
+        <v>73287</v>
+      </c>
+      <c r="D612" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E612" t="s">
+        <v>28</v>
+      </c>
+      <c r="F612" t="s">
+        <v>765</v>
+      </c>
+      <c r="G612" t="s">
+        <v>765</v>
+      </c>
+      <c r="H612">
+        <v>1</v>
+      </c>
+      <c r="I612" t="s">
+        <v>18</v>
+      </c>
+      <c r="J612" t="s">
+        <v>29</v>
+      </c>
+      <c r="K612" t="s">
+        <v>20</v>
+      </c>
+      <c r="L612" t="s">
+        <v>766</v>
+      </c>
+      <c r="M612">
+        <v>200</v>
+      </c>
+      <c r="N612" t="s">
+        <v>22</v>
+      </c>
+      <c r="O612" t="s">
+        <v>38</v>
+      </c>
+      <c r="P612">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>20104</v>
+      </c>
+      <c r="B613" t="s">
+        <v>765</v>
+      </c>
+      <c r="C613">
+        <v>7058.47</v>
+      </c>
+      <c r="D613" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E613" t="s">
+        <v>31</v>
+      </c>
+      <c r="F613" t="s">
+        <v>765</v>
+      </c>
+      <c r="G613" t="s">
+        <v>765</v>
+      </c>
+      <c r="H613">
+        <v>1</v>
+      </c>
+      <c r="I613" t="s">
+        <v>18</v>
+      </c>
+      <c r="J613" t="s">
+        <v>34</v>
+      </c>
+      <c r="K613" t="s">
+        <v>33</v>
+      </c>
+      <c r="L613" t="s">
+        <v>765</v>
+      </c>
+      <c r="M613">
+        <v>200</v>
+      </c>
+      <c r="N613" t="s">
+        <v>22</v>
+      </c>
+      <c r="O613" t="s">
+        <v>38</v>
+      </c>
+      <c r="P613">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>20105</v>
+      </c>
+      <c r="B614" t="s">
+        <v>765</v>
+      </c>
+      <c r="C614">
+        <v>2953.27</v>
+      </c>
+      <c r="D614" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E614" t="s">
+        <v>31</v>
+      </c>
+      <c r="F614" t="s">
+        <v>765</v>
+      </c>
+      <c r="G614" t="s">
+        <v>765</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614" t="s">
+        <v>18</v>
+      </c>
+      <c r="J614" t="s">
+        <v>62</v>
+      </c>
+      <c r="K614" t="s">
+        <v>33</v>
+      </c>
+      <c r="L614" t="s">
+        <v>765</v>
+      </c>
+      <c r="M614">
+        <v>200</v>
+      </c>
+      <c r="N614" t="s">
+        <v>22</v>
+      </c>
+      <c r="O614" t="s">
+        <v>38</v>
+      </c>
+      <c r="P614">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>20106</v>
+      </c>
+      <c r="B615" t="s">
+        <v>765</v>
+      </c>
+      <c r="C615">
+        <v>4196.68</v>
+      </c>
+      <c r="D615" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E615" t="s">
+        <v>31</v>
+      </c>
+      <c r="F615" t="s">
+        <v>765</v>
+      </c>
+      <c r="G615" t="s">
+        <v>765</v>
+      </c>
+      <c r="H615">
+        <v>1</v>
+      </c>
+      <c r="I615" t="s">
+        <v>18</v>
+      </c>
+      <c r="J615" t="s">
+        <v>62</v>
+      </c>
+      <c r="K615" t="s">
+        <v>33</v>
+      </c>
+      <c r="L615" t="s">
+        <v>765</v>
+      </c>
+      <c r="M615">
+        <v>200</v>
+      </c>
+      <c r="N615" t="s">
+        <v>22</v>
+      </c>
+      <c r="O615" t="s">
+        <v>38</v>
+      </c>
+      <c r="P615">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>20107</v>
+      </c>
+      <c r="B616" t="s">
+        <v>765</v>
+      </c>
+      <c r="C616">
+        <v>2957.48</v>
+      </c>
+      <c r="D616" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E616" t="s">
+        <v>31</v>
+      </c>
+      <c r="F616" t="s">
+        <v>765</v>
+      </c>
+      <c r="G616" t="s">
+        <v>765</v>
+      </c>
+      <c r="H616">
+        <v>1</v>
+      </c>
+      <c r="I616" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616" t="s">
+        <v>240</v>
+      </c>
+      <c r="K616" t="s">
+        <v>33</v>
+      </c>
+      <c r="L616" t="s">
+        <v>765</v>
+      </c>
+      <c r="M616">
+        <v>200</v>
+      </c>
+      <c r="N616" t="s">
+        <v>22</v>
+      </c>
+      <c r="O616" t="s">
+        <v>38</v>
+      </c>
+      <c r="P616">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>20108</v>
+      </c>
+      <c r="B617" t="s">
+        <v>765</v>
+      </c>
+      <c r="C617">
+        <v>4202.74</v>
+      </c>
+      <c r="D617" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E617" t="s">
+        <v>31</v>
+      </c>
+      <c r="F617" t="s">
+        <v>765</v>
+      </c>
+      <c r="G617" t="s">
+        <v>765</v>
+      </c>
+      <c r="H617">
+        <v>1</v>
+      </c>
+      <c r="I617" t="s">
+        <v>18</v>
+      </c>
+      <c r="J617" t="s">
+        <v>240</v>
+      </c>
+      <c r="K617" t="s">
+        <v>33</v>
+      </c>
+      <c r="L617" t="s">
+        <v>765</v>
+      </c>
+      <c r="M617">
+        <v>200</v>
+      </c>
+      <c r="N617" t="s">
+        <v>22</v>
+      </c>
+      <c r="O617" t="s">
+        <v>38</v>
+      </c>
+      <c r="P617">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>20109</v>
+      </c>
+      <c r="B618" t="s">
+        <v>765</v>
+      </c>
+      <c r="C618">
+        <v>3017.29</v>
+      </c>
+      <c r="D618" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E618" t="s">
+        <v>31</v>
+      </c>
+      <c r="F618" t="s">
+        <v>765</v>
+      </c>
+      <c r="G618" t="s">
+        <v>765</v>
+      </c>
+      <c r="H618">
+        <v>1</v>
+      </c>
+      <c r="I618" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618" t="s">
+        <v>63</v>
+      </c>
+      <c r="K618" t="s">
+        <v>33</v>
+      </c>
+      <c r="L618" t="s">
+        <v>765</v>
+      </c>
+      <c r="M618">
+        <v>200</v>
+      </c>
+      <c r="N618" t="s">
+        <v>22</v>
+      </c>
+      <c r="O618" t="s">
+        <v>38</v>
+      </c>
+      <c r="P618">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>20110</v>
+      </c>
+      <c r="B619" t="s">
+        <v>765</v>
+      </c>
+      <c r="C619">
+        <v>4287.6400000000003</v>
+      </c>
+      <c r="D619" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E619" t="s">
+        <v>31</v>
+      </c>
+      <c r="F619" t="s">
+        <v>765</v>
+      </c>
+      <c r="G619" t="s">
+        <v>765</v>
+      </c>
+      <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619" t="s">
+        <v>18</v>
+      </c>
+      <c r="J619" t="s">
+        <v>63</v>
+      </c>
+      <c r="K619" t="s">
+        <v>33</v>
+      </c>
+      <c r="L619" t="s">
+        <v>765</v>
+      </c>
+      <c r="M619">
+        <v>200</v>
+      </c>
+      <c r="N619" t="s">
+        <v>22</v>
+      </c>
+      <c r="O619" t="s">
+        <v>38</v>
+      </c>
+      <c r="P619">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>20111</v>
+      </c>
+      <c r="B620" t="s">
+        <v>765</v>
+      </c>
+      <c r="C620">
+        <v>5896.1</v>
+      </c>
+      <c r="D620" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E620" t="s">
+        <v>31</v>
+      </c>
+      <c r="F620" t="s">
+        <v>765</v>
+      </c>
+      <c r="G620" t="s">
+        <v>765</v>
+      </c>
+      <c r="H620">
+        <v>1</v>
+      </c>
+      <c r="I620" t="s">
+        <v>18</v>
+      </c>
+      <c r="J620" t="s">
+        <v>36</v>
+      </c>
+      <c r="K620" t="s">
+        <v>33</v>
+      </c>
+      <c r="L620" t="s">
+        <v>765</v>
+      </c>
+      <c r="M620">
+        <v>200</v>
+      </c>
+      <c r="N620" t="s">
+        <v>22</v>
+      </c>
+      <c r="O620" t="s">
+        <v>38</v>
+      </c>
+      <c r="P620">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>20112</v>
+      </c>
+      <c r="B621" t="s">
+        <v>765</v>
+      </c>
+      <c r="C621">
+        <v>16677.54</v>
+      </c>
+      <c r="D621" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E621" t="s">
+        <v>31</v>
+      </c>
+      <c r="F621" t="s">
+        <v>765</v>
+      </c>
+      <c r="G621" t="s">
+        <v>765</v>
+      </c>
+      <c r="H621">
+        <v>1</v>
+      </c>
+      <c r="I621" t="s">
+        <v>18</v>
+      </c>
+      <c r="J621" t="s">
+        <v>36</v>
+      </c>
+      <c r="K621" t="s">
+        <v>33</v>
+      </c>
+      <c r="L621" t="s">
+        <v>765</v>
+      </c>
+      <c r="M621">
+        <v>200</v>
+      </c>
+      <c r="N621" t="s">
+        <v>22</v>
+      </c>
+      <c r="O621" t="s">
+        <v>38</v>
+      </c>
+      <c r="P621">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>20113</v>
+      </c>
+      <c r="B622" t="s">
+        <v>766</v>
+      </c>
+      <c r="C622">
+        <v>96847.49</v>
+      </c>
+      <c r="D622" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E622" t="s">
+        <v>31</v>
+      </c>
+      <c r="F622" t="s">
+        <v>765</v>
+      </c>
+      <c r="G622" t="s">
+        <v>765</v>
+      </c>
+      <c r="H622">
+        <v>1</v>
+      </c>
+      <c r="I622" t="s">
+        <v>18</v>
+      </c>
+      <c r="J622" t="s">
+        <v>32</v>
+      </c>
+      <c r="K622" t="s">
+        <v>33</v>
+      </c>
+      <c r="L622" t="s">
+        <v>766</v>
+      </c>
+      <c r="M622">
+        <v>200</v>
+      </c>
+      <c r="N622" t="s">
+        <v>22</v>
+      </c>
+      <c r="O622" t="s">
+        <v>38</v>
+      </c>
+      <c r="P622">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>20114</v>
+      </c>
+      <c r="B623" t="s">
+        <v>766</v>
+      </c>
+      <c r="C623">
+        <v>279912.96999999997</v>
+      </c>
+      <c r="D623" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E623" t="s">
+        <v>31</v>
+      </c>
+      <c r="F623" t="s">
+        <v>765</v>
+      </c>
+      <c r="G623" t="s">
+        <v>765</v>
+      </c>
+      <c r="H623">
+        <v>1</v>
+      </c>
+      <c r="I623" t="s">
+        <v>18</v>
+      </c>
+      <c r="J623" t="s">
+        <v>32</v>
+      </c>
+      <c r="K623" t="s">
+        <v>33</v>
+      </c>
+      <c r="L623" t="s">
+        <v>766</v>
+      </c>
+      <c r="M623">
+        <v>200</v>
+      </c>
+      <c r="N623" t="s">
+        <v>22</v>
+      </c>
+      <c r="O623" t="s">
+        <v>38</v>
+      </c>
+      <c r="P623">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>20115</v>
+      </c>
+      <c r="B624" t="s">
+        <v>766</v>
+      </c>
+      <c r="C624">
+        <v>96879.66</v>
+      </c>
+      <c r="D624" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E624" t="s">
+        <v>31</v>
+      </c>
+      <c r="F624" t="s">
+        <v>765</v>
+      </c>
+      <c r="G624" t="s">
+        <v>765</v>
+      </c>
+      <c r="H624">
+        <v>1</v>
+      </c>
+      <c r="I624" t="s">
+        <v>18</v>
+      </c>
+      <c r="J624" t="s">
+        <v>35</v>
+      </c>
+      <c r="K624" t="s">
+        <v>33</v>
+      </c>
+      <c r="L624" t="s">
+        <v>766</v>
+      </c>
+      <c r="M624">
+        <v>200</v>
+      </c>
+      <c r="N624" t="s">
+        <v>22</v>
+      </c>
+      <c r="O624" t="s">
+        <v>38</v>
+      </c>
+      <c r="P624">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>20116</v>
+      </c>
+      <c r="B625" t="s">
+        <v>766</v>
+      </c>
+      <c r="C625">
+        <v>279986.58</v>
+      </c>
+      <c r="D625" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E625" t="s">
+        <v>31</v>
+      </c>
+      <c r="F625" t="s">
+        <v>765</v>
+      </c>
+      <c r="G625" t="s">
+        <v>765</v>
+      </c>
+      <c r="H625">
+        <v>1</v>
+      </c>
+      <c r="I625" t="s">
+        <v>18</v>
+      </c>
+      <c r="J625" t="s">
+        <v>35</v>
+      </c>
+      <c r="K625" t="s">
+        <v>33</v>
+      </c>
+      <c r="L625" t="s">
+        <v>766</v>
+      </c>
+      <c r="M625">
+        <v>200</v>
+      </c>
+      <c r="N625" t="s">
+        <v>22</v>
+      </c>
+      <c r="O625" t="s">
+        <v>38</v>
+      </c>
+      <c r="P625">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>20117</v>
+      </c>
+      <c r="B626" t="s">
+        <v>766</v>
+      </c>
+      <c r="C626">
+        <v>69937.52</v>
+      </c>
+      <c r="D626" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E626" t="s">
+        <v>31</v>
+      </c>
+      <c r="F626" t="s">
+        <v>765</v>
+      </c>
+      <c r="G626" t="s">
+        <v>765</v>
+      </c>
+      <c r="H626">
+        <v>1</v>
+      </c>
+      <c r="I626" t="s">
+        <v>18</v>
+      </c>
+      <c r="J626" t="s">
+        <v>62</v>
+      </c>
+      <c r="K626" t="s">
+        <v>33</v>
+      </c>
+      <c r="L626" t="s">
+        <v>766</v>
+      </c>
+      <c r="M626">
+        <v>200</v>
+      </c>
+      <c r="N626" t="s">
+        <v>22</v>
+      </c>
+      <c r="O626" t="s">
+        <v>38</v>
+      </c>
+      <c r="P626">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>20118</v>
+      </c>
+      <c r="B627" t="s">
+        <v>766</v>
+      </c>
+      <c r="C627">
+        <v>125887.46</v>
+      </c>
+      <c r="D627" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E627" t="s">
+        <v>31</v>
+      </c>
+      <c r="F627" t="s">
+        <v>765</v>
+      </c>
+      <c r="G627" t="s">
+        <v>765</v>
+      </c>
+      <c r="H627">
+        <v>1</v>
+      </c>
+      <c r="I627" t="s">
+        <v>18</v>
+      </c>
+      <c r="J627" t="s">
+        <v>62</v>
+      </c>
+      <c r="K627" t="s">
+        <v>33</v>
+      </c>
+      <c r="L627" t="s">
+        <v>766</v>
+      </c>
+      <c r="M627">
+        <v>200</v>
+      </c>
+      <c r="N627" t="s">
+        <v>22</v>
+      </c>
+      <c r="O627" t="s">
+        <v>38</v>
+      </c>
+      <c r="P627">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>20119</v>
+      </c>
+      <c r="B628" t="s">
+        <v>766</v>
+      </c>
+      <c r="C628">
+        <v>78329.86</v>
+      </c>
+      <c r="D628" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E628" t="s">
+        <v>31</v>
+      </c>
+      <c r="F628" t="s">
+        <v>765</v>
+      </c>
+      <c r="G628" t="s">
+        <v>765</v>
+      </c>
+      <c r="H628">
+        <v>1</v>
+      </c>
+      <c r="I628" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" t="s">
+        <v>240</v>
+      </c>
+      <c r="K628" t="s">
+        <v>33</v>
+      </c>
+      <c r="L628" t="s">
+        <v>766</v>
+      </c>
+      <c r="M628">
+        <v>200</v>
+      </c>
+      <c r="N628" t="s">
+        <v>22</v>
+      </c>
+      <c r="O628" t="s">
+        <v>38</v>
+      </c>
+      <c r="P628">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>20120</v>
+      </c>
+      <c r="B629" t="s">
+        <v>766</v>
+      </c>
+      <c r="C629">
+        <v>140993.94</v>
+      </c>
+      <c r="D629" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E629" t="s">
+        <v>31</v>
+      </c>
+      <c r="F629" t="s">
+        <v>765</v>
+      </c>
+      <c r="G629" t="s">
+        <v>765</v>
+      </c>
+      <c r="H629">
+        <v>1</v>
+      </c>
+      <c r="I629" t="s">
+        <v>18</v>
+      </c>
+      <c r="J629" t="s">
+        <v>240</v>
+      </c>
+      <c r="K629" t="s">
+        <v>33</v>
+      </c>
+      <c r="L629" t="s">
+        <v>766</v>
+      </c>
+      <c r="M629">
+        <v>200</v>
+      </c>
+      <c r="N629" t="s">
+        <v>22</v>
+      </c>
+      <c r="O629" t="s">
+        <v>38</v>
+      </c>
+      <c r="P629">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>20121</v>
+      </c>
+      <c r="B630" t="s">
+        <v>766</v>
+      </c>
+      <c r="C630">
+        <v>81127.47</v>
+      </c>
+      <c r="D630" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E630" t="s">
+        <v>31</v>
+      </c>
+      <c r="F630" t="s">
+        <v>765</v>
+      </c>
+      <c r="G630" t="s">
+        <v>765</v>
+      </c>
+      <c r="H630">
+        <v>1</v>
+      </c>
+      <c r="I630" t="s">
+        <v>18</v>
+      </c>
+      <c r="J630" t="s">
+        <v>63</v>
+      </c>
+      <c r="K630" t="s">
+        <v>33</v>
+      </c>
+      <c r="L630" t="s">
+        <v>766</v>
+      </c>
+      <c r="M630">
+        <v>200</v>
+      </c>
+      <c r="N630" t="s">
+        <v>22</v>
+      </c>
+      <c r="O630" t="s">
+        <v>38</v>
+      </c>
+      <c r="P630">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>20122</v>
+      </c>
+      <c r="B631" t="s">
+        <v>766</v>
+      </c>
+      <c r="C631">
+        <v>146029.38</v>
+      </c>
+      <c r="D631" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E631" t="s">
+        <v>31</v>
+      </c>
+      <c r="F631" t="s">
+        <v>765</v>
+      </c>
+      <c r="G631" t="s">
+        <v>765</v>
+      </c>
+      <c r="H631">
+        <v>1</v>
+      </c>
+      <c r="I631" t="s">
+        <v>18</v>
+      </c>
+      <c r="J631" t="s">
+        <v>63</v>
+      </c>
+      <c r="K631" t="s">
+        <v>33</v>
+      </c>
+      <c r="L631" t="s">
+        <v>766</v>
+      </c>
+      <c r="M631">
+        <v>200</v>
+      </c>
+      <c r="N631" t="s">
+        <v>22</v>
+      </c>
+      <c r="O631" t="s">
+        <v>38</v>
+      </c>
+      <c r="P631">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>20123</v>
+      </c>
+      <c r="B632" t="s">
+        <v>766</v>
+      </c>
+      <c r="C632">
+        <v>104950.58</v>
+      </c>
+      <c r="D632" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E632" t="s">
+        <v>31</v>
+      </c>
+      <c r="F632" t="s">
+        <v>765</v>
+      </c>
+      <c r="G632" t="s">
+        <v>765</v>
+      </c>
+      <c r="H632">
+        <v>1</v>
+      </c>
+      <c r="I632" t="s">
+        <v>18</v>
+      </c>
+      <c r="J632" t="s">
+        <v>36</v>
+      </c>
+      <c r="K632" t="s">
+        <v>33</v>
+      </c>
+      <c r="L632" t="s">
+        <v>766</v>
+      </c>
+      <c r="M632">
+        <v>200</v>
+      </c>
+      <c r="N632" t="s">
+        <v>22</v>
+      </c>
+      <c r="O632" t="s">
+        <v>38</v>
+      </c>
+      <c r="P632">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>20124</v>
+      </c>
+      <c r="B633" t="s">
+        <v>766</v>
+      </c>
+      <c r="C633">
+        <v>123641.22</v>
+      </c>
+      <c r="D633" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E633" t="s">
+        <v>31</v>
+      </c>
+      <c r="F633" t="s">
+        <v>765</v>
+      </c>
+      <c r="G633" t="s">
+        <v>765</v>
+      </c>
+      <c r="H633">
+        <v>1</v>
+      </c>
+      <c r="I633" t="s">
+        <v>18</v>
+      </c>
+      <c r="J633" t="s">
+        <v>37</v>
+      </c>
+      <c r="K633" t="s">
+        <v>33</v>
+      </c>
+      <c r="L633" t="s">
+        <v>766</v>
+      </c>
+      <c r="M633">
+        <v>200</v>
+      </c>
+      <c r="N633" t="s">
+        <v>22</v>
+      </c>
+      <c r="O633" t="s">
+        <v>38</v>
+      </c>
+      <c r="P633">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>20125</v>
+      </c>
+      <c r="B634" t="s">
+        <v>769</v>
+      </c>
+      <c r="C634">
+        <v>29568.42</v>
+      </c>
+      <c r="D634" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E634" t="s">
+        <v>40</v>
+      </c>
+      <c r="F634" t="s">
+        <v>765</v>
+      </c>
+      <c r="G634" t="s">
+        <v>765</v>
+      </c>
+      <c r="H634">
+        <v>1</v>
+      </c>
+      <c r="I634" t="s">
+        <v>18</v>
+      </c>
+      <c r="J634" t="s">
+        <v>40</v>
+      </c>
+      <c r="K634" t="s">
+        <v>41</v>
+      </c>
+      <c r="L634" t="s">
+        <v>766</v>
+      </c>
+      <c r="M634">
+        <v>200</v>
+      </c>
+      <c r="N634" t="s">
+        <v>22</v>
+      </c>
+      <c r="O634" t="s">
+        <v>38</v>
+      </c>
+      <c r="P634">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>20126</v>
+      </c>
+      <c r="B635" t="s">
+        <v>770</v>
+      </c>
+      <c r="C635">
+        <v>468.68</v>
+      </c>
+      <c r="D635" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E635" t="s">
+        <v>44</v>
+      </c>
+      <c r="F635" t="s">
+        <v>765</v>
+      </c>
+      <c r="G635" t="s">
+        <v>765</v>
+      </c>
+      <c r="H635">
+        <v>1</v>
+      </c>
+      <c r="I635" t="s">
+        <v>18</v>
+      </c>
+      <c r="J635" t="s">
+        <v>44</v>
+      </c>
+      <c r="K635" t="s">
+        <v>45</v>
+      </c>
+      <c r="L635" t="s">
+        <v>771</v>
+      </c>
+      <c r="M635">
+        <v>200</v>
+      </c>
+      <c r="N635" t="s">
+        <v>22</v>
+      </c>
+      <c r="O635" t="s">
+        <v>38</v>
+      </c>
+      <c r="P635">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>20127</v>
+      </c>
+      <c r="B636" t="s">
+        <v>772</v>
+      </c>
+      <c r="C636">
+        <v>30072.61</v>
+      </c>
+      <c r="D636" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E636" t="s">
+        <v>44</v>
+      </c>
+      <c r="F636" t="s">
+        <v>765</v>
+      </c>
+      <c r="G636" t="s">
+        <v>765</v>
+      </c>
+      <c r="H636">
+        <v>1</v>
+      </c>
+      <c r="I636" t="s">
+        <v>18</v>
+      </c>
+      <c r="J636" t="s">
+        <v>44</v>
+      </c>
+      <c r="K636" t="s">
+        <v>45</v>
+      </c>
+      <c r="L636" t="s">
+        <v>773</v>
+      </c>
+      <c r="M636">
+        <v>200</v>
+      </c>
+      <c r="N636" t="s">
+        <v>22</v>
+      </c>
+      <c r="O636" t="s">
+        <v>38</v>
+      </c>
+      <c r="P636">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>20128</v>
+      </c>
+      <c r="B637" t="s">
+        <v>774</v>
+      </c>
+      <c r="C637">
+        <v>1828.6</v>
+      </c>
+      <c r="D637" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E637" t="s">
+        <v>44</v>
+      </c>
+      <c r="F637" t="s">
+        <v>765</v>
+      </c>
+      <c r="G637" t="s">
+        <v>765</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+      <c r="I637" t="s">
+        <v>18</v>
+      </c>
+      <c r="J637" t="s">
+        <v>44</v>
+      </c>
+      <c r="K637" t="s">
+        <v>45</v>
+      </c>
+      <c r="L637" t="s">
+        <v>775</v>
+      </c>
+      <c r="M637">
+        <v>200</v>
+      </c>
+      <c r="N637" t="s">
+        <v>22</v>
+      </c>
+      <c r="O637" t="s">
+        <v>38</v>
+      </c>
+      <c r="P637">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>20129</v>
+      </c>
+      <c r="B638" t="s">
+        <v>776</v>
+      </c>
+      <c r="C638">
+        <v>483.92</v>
+      </c>
+      <c r="D638" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E638" t="s">
+        <v>44</v>
+      </c>
+      <c r="F638" t="s">
+        <v>765</v>
+      </c>
+      <c r="G638" t="s">
+        <v>765</v>
+      </c>
+      <c r="H638">
+        <v>1</v>
+      </c>
+      <c r="I638" t="s">
+        <v>18</v>
+      </c>
+      <c r="J638" t="s">
+        <v>44</v>
+      </c>
+      <c r="K638" t="s">
+        <v>45</v>
+      </c>
+      <c r="L638" t="s">
+        <v>775</v>
+      </c>
+      <c r="M638">
+        <v>200</v>
+      </c>
+      <c r="N638" t="s">
+        <v>22</v>
+      </c>
+      <c r="O638" t="s">
+        <v>38</v>
+      </c>
+      <c r="P638">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>20131</v>
+      </c>
+      <c r="B639" t="s">
+        <v>777</v>
+      </c>
+      <c r="C639">
+        <v>30072.61</v>
+      </c>
+      <c r="D639" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E639" t="s">
+        <v>44</v>
+      </c>
+      <c r="F639" t="s">
+        <v>765</v>
+      </c>
+      <c r="G639" t="s">
+        <v>765</v>
+      </c>
+      <c r="H639">
+        <v>1</v>
+      </c>
+      <c r="I639" t="s">
+        <v>18</v>
+      </c>
+      <c r="J639" t="s">
+        <v>44</v>
+      </c>
+      <c r="K639" t="s">
+        <v>45</v>
+      </c>
+      <c r="L639" t="s">
+        <v>766</v>
+      </c>
+      <c r="M639">
+        <v>200</v>
+      </c>
+      <c r="N639" t="s">
+        <v>22</v>
+      </c>
+      <c r="O639" t="s">
+        <v>38</v>
+      </c>
+      <c r="P639">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>20132</v>
+      </c>
+      <c r="B640" t="s">
+        <v>778</v>
+      </c>
+      <c r="C640">
+        <v>1556.78</v>
+      </c>
+      <c r="D640" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E640" t="s">
+        <v>44</v>
+      </c>
+      <c r="F640" t="s">
+        <v>765</v>
+      </c>
+      <c r="G640" t="s">
+        <v>765</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+      <c r="I640" t="s">
+        <v>18</v>
+      </c>
+      <c r="J640" t="s">
+        <v>44</v>
+      </c>
+      <c r="K640" t="s">
+        <v>45</v>
+      </c>
+      <c r="L640" t="s">
+        <v>779</v>
+      </c>
+      <c r="M640">
+        <v>200</v>
+      </c>
+      <c r="N640" t="s">
+        <v>22</v>
+      </c>
+      <c r="O640" t="s">
+        <v>38</v>
+      </c>
+      <c r="P640">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>20133</v>
+      </c>
+      <c r="B641" t="s">
+        <v>780</v>
+      </c>
+      <c r="C641">
+        <v>408.76</v>
+      </c>
+      <c r="D641" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E641" t="s">
+        <v>44</v>
+      </c>
+      <c r="F641" t="s">
+        <v>765</v>
+      </c>
+      <c r="G641" t="s">
+        <v>765</v>
+      </c>
+      <c r="H641">
+        <v>1</v>
+      </c>
+      <c r="I641" t="s">
+        <v>18</v>
+      </c>
+      <c r="J641" t="s">
+        <v>44</v>
+      </c>
+      <c r="K641" t="s">
+        <v>45</v>
+      </c>
+      <c r="L641" t="s">
+        <v>781</v>
+      </c>
+      <c r="M641">
+        <v>200</v>
+      </c>
+      <c r="N641" t="s">
+        <v>22</v>
+      </c>
+      <c r="O641" t="s">
+        <v>38</v>
+      </c>
+      <c r="P641">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>20136</v>
+      </c>
+      <c r="B642" t="s">
+        <v>766</v>
+      </c>
+      <c r="C642">
+        <v>66310.73</v>
+      </c>
+      <c r="D642" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E642" t="s">
+        <v>46</v>
+      </c>
+      <c r="F642" t="s">
+        <v>765</v>
+      </c>
+      <c r="G642" t="s">
+        <v>765</v>
+      </c>
+      <c r="H642">
+        <v>1</v>
+      </c>
+      <c r="I642" t="s">
+        <v>18</v>
+      </c>
+      <c r="J642" t="s">
+        <v>46</v>
+      </c>
+      <c r="K642" t="s">
+        <v>47</v>
+      </c>
+      <c r="L642" t="s">
+        <v>766</v>
+      </c>
+      <c r="M642">
+        <v>200</v>
+      </c>
+      <c r="N642" t="s">
+        <v>22</v>
+      </c>
+      <c r="O642" t="s">
+        <v>38</v>
+      </c>
+      <c r="P642">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>20137</v>
+      </c>
+      <c r="B643" t="s">
+        <v>782</v>
+      </c>
+      <c r="C643">
+        <v>62781.7</v>
+      </c>
+      <c r="D643" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E643" t="s">
+        <v>46</v>
+      </c>
+      <c r="F643" t="s">
+        <v>765</v>
+      </c>
+      <c r="G643" t="s">
+        <v>765</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+      <c r="I643" t="s">
+        <v>18</v>
+      </c>
+      <c r="J643" t="s">
+        <v>46</v>
+      </c>
+      <c r="K643" t="s">
+        <v>47</v>
+      </c>
+      <c r="L643" t="s">
+        <v>782</v>
+      </c>
+      <c r="M643">
+        <v>200</v>
+      </c>
+      <c r="N643" t="s">
+        <v>22</v>
+      </c>
+      <c r="O643" t="s">
+        <v>38</v>
+      </c>
+      <c r="P643">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>20138</v>
+      </c>
+      <c r="B644" t="s">
+        <v>783</v>
+      </c>
+      <c r="C644">
+        <v>36250.68</v>
+      </c>
+      <c r="D644" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E644" t="s">
+        <v>49</v>
+      </c>
+      <c r="F644" t="s">
+        <v>765</v>
+      </c>
+      <c r="G644" t="s">
+        <v>765</v>
+      </c>
+      <c r="H644">
+        <v>1</v>
+      </c>
+      <c r="I644" t="s">
+        <v>18</v>
+      </c>
+      <c r="J644" t="s">
+        <v>50</v>
+      </c>
+      <c r="K644" t="s">
+        <v>51</v>
+      </c>
+      <c r="L644" t="s">
+        <v>766</v>
+      </c>
+      <c r="M644">
+        <v>200</v>
+      </c>
+      <c r="N644" t="s">
+        <v>22</v>
+      </c>
+      <c r="O644" t="s">
+        <v>38</v>
+      </c>
+      <c r="P644">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>20140</v>
+      </c>
+      <c r="B645" t="s">
+        <v>784</v>
+      </c>
+      <c r="C645">
+        <v>48116.41</v>
+      </c>
+      <c r="D645" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E645" t="s">
+        <v>53</v>
+      </c>
+      <c r="F645" t="s">
+        <v>765</v>
+      </c>
+      <c r="G645" t="s">
+        <v>765</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+      <c r="I645" t="s">
+        <v>18</v>
+      </c>
+      <c r="J645" t="s">
+        <v>54</v>
+      </c>
+      <c r="K645" t="s">
+        <v>55</v>
+      </c>
+      <c r="L645" t="s">
+        <v>785</v>
+      </c>
+      <c r="M645">
+        <v>200</v>
+      </c>
+      <c r="N645" t="s">
+        <v>22</v>
+      </c>
+      <c r="O645" t="s">
+        <v>38</v>
+      </c>
+      <c r="P645">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>20141</v>
+      </c>
+      <c r="B646" t="s">
+        <v>786</v>
+      </c>
+      <c r="C646">
+        <v>31580.11</v>
+      </c>
+      <c r="D646" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E646" t="s">
+        <v>53</v>
+      </c>
+      <c r="F646" t="s">
+        <v>765</v>
+      </c>
+      <c r="G646" t="s">
+        <v>765</v>
+      </c>
+      <c r="H646">
+        <v>1</v>
+      </c>
+      <c r="I646" t="s">
+        <v>18</v>
+      </c>
+      <c r="J646" t="s">
+        <v>54</v>
+      </c>
+      <c r="K646" t="s">
+        <v>55</v>
+      </c>
+      <c r="L646" t="s">
+        <v>787</v>
+      </c>
+      <c r="M646">
+        <v>200</v>
+      </c>
+      <c r="N646" t="s">
+        <v>22</v>
+      </c>
+      <c r="O646" t="s">
+        <v>38</v>
+      </c>
+      <c r="P646">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>20142</v>
+      </c>
+      <c r="B647" t="s">
+        <v>788</v>
+      </c>
+      <c r="C647">
+        <v>31580.11</v>
+      </c>
+      <c r="D647" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E647" t="s">
+        <v>53</v>
+      </c>
+      <c r="F647" t="s">
+        <v>765</v>
+      </c>
+      <c r="G647" t="s">
+        <v>765</v>
+      </c>
+      <c r="H647">
+        <v>1</v>
+      </c>
+      <c r="I647" t="s">
+        <v>18</v>
+      </c>
+      <c r="J647" t="s">
+        <v>54</v>
+      </c>
+      <c r="K647" t="s">
+        <v>55</v>
+      </c>
+      <c r="L647" t="s">
+        <v>789</v>
+      </c>
+      <c r="M647">
+        <v>200</v>
+      </c>
+      <c r="N647" t="s">
+        <v>22</v>
+      </c>
+      <c r="O647" t="s">
+        <v>38</v>
+      </c>
+      <c r="P647">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>20143</v>
+      </c>
+      <c r="B648" t="s">
+        <v>790</v>
+      </c>
+      <c r="C648">
+        <v>31580.11</v>
+      </c>
+      <c r="D648" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E648" t="s">
+        <v>53</v>
+      </c>
+      <c r="F648" t="s">
+        <v>765</v>
+      </c>
+      <c r="G648" t="s">
+        <v>765</v>
+      </c>
+      <c r="H648">
+        <v>1</v>
+      </c>
+      <c r="I648" t="s">
+        <v>18</v>
+      </c>
+      <c r="J648" t="s">
+        <v>54</v>
+      </c>
+      <c r="K648" t="s">
+        <v>55</v>
+      </c>
+      <c r="L648" t="s">
+        <v>791</v>
+      </c>
+      <c r="M648">
+        <v>200</v>
+      </c>
+      <c r="N648" t="s">
+        <v>22</v>
+      </c>
+      <c r="O648" t="s">
+        <v>38</v>
+      </c>
+      <c r="P648">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>20144</v>
+      </c>
+      <c r="B649" t="s">
+        <v>792</v>
+      </c>
+      <c r="C649">
+        <v>31580.11</v>
+      </c>
+      <c r="D649" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E649" t="s">
+        <v>53</v>
+      </c>
+      <c r="F649" t="s">
+        <v>765</v>
+      </c>
+      <c r="G649" t="s">
+        <v>765</v>
+      </c>
+      <c r="H649">
+        <v>1</v>
+      </c>
+      <c r="I649" t="s">
+        <v>18</v>
+      </c>
+      <c r="J649" t="s">
+        <v>54</v>
+      </c>
+      <c r="K649" t="s">
+        <v>55</v>
+      </c>
+      <c r="L649" t="s">
+        <v>791</v>
+      </c>
+      <c r="M649">
+        <v>200</v>
+      </c>
+      <c r="N649" t="s">
+        <v>22</v>
+      </c>
+      <c r="O649" t="s">
+        <v>38</v>
+      </c>
+      <c r="P649">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>20145</v>
+      </c>
+      <c r="B650" t="s">
+        <v>766</v>
+      </c>
+      <c r="C650">
+        <v>72198.03</v>
+      </c>
+      <c r="D650" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E650" t="s">
+        <v>57</v>
+      </c>
+      <c r="F650" t="s">
+        <v>765</v>
+      </c>
+      <c r="G650" t="s">
+        <v>765</v>
+      </c>
+      <c r="H650">
+        <v>1</v>
+      </c>
+      <c r="I650" t="s">
+        <v>18</v>
+      </c>
+      <c r="J650" t="s">
+        <v>58</v>
+      </c>
+      <c r="K650" t="s">
+        <v>59</v>
+      </c>
+      <c r="L650" t="s">
+        <v>766</v>
+      </c>
+      <c r="M650">
+        <v>200</v>
+      </c>
+      <c r="N650" t="s">
+        <v>22</v>
+      </c>
+      <c r="O650" t="s">
+        <v>38</v>
+      </c>
+      <c r="P650">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>20146</v>
+      </c>
+      <c r="B651" t="s">
+        <v>793</v>
+      </c>
+      <c r="C651">
+        <v>16155.13</v>
+      </c>
+      <c r="D651" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E651" t="s">
+        <v>57</v>
+      </c>
+      <c r="F651" t="s">
+        <v>765</v>
+      </c>
+      <c r="G651" t="s">
+        <v>765</v>
+      </c>
+      <c r="H651">
+        <v>1</v>
+      </c>
+      <c r="I651" t="s">
+        <v>18</v>
+      </c>
+      <c r="J651" t="s">
+        <v>58</v>
+      </c>
+      <c r="K651" t="s">
+        <v>59</v>
+      </c>
+      <c r="L651" t="s">
+        <v>794</v>
+      </c>
+      <c r="M651">
+        <v>200</v>
+      </c>
+      <c r="N651" t="s">
+        <v>22</v>
+      </c>
+      <c r="O651" t="s">
+        <v>38</v>
+      </c>
+      <c r="P651">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>20147</v>
+      </c>
+      <c r="B652" t="s">
+        <v>795</v>
+      </c>
+      <c r="C652">
+        <v>16155.13</v>
+      </c>
+      <c r="D652" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E652" t="s">
+        <v>57</v>
+      </c>
+      <c r="F652" t="s">
+        <v>765</v>
+      </c>
+      <c r="G652" t="s">
+        <v>765</v>
+      </c>
+      <c r="H652">
+        <v>1</v>
+      </c>
+      <c r="I652" t="s">
+        <v>18</v>
+      </c>
+      <c r="J652" t="s">
+        <v>58</v>
+      </c>
+      <c r="K652" t="s">
+        <v>59</v>
+      </c>
+      <c r="L652" t="s">
+        <v>796</v>
+      </c>
+      <c r="M652">
+        <v>200</v>
+      </c>
+      <c r="N652" t="s">
+        <v>22</v>
+      </c>
+      <c r="O652" t="s">
+        <v>38</v>
+      </c>
+      <c r="P652">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>20148</v>
+      </c>
+      <c r="B653" t="s">
+        <v>797</v>
+      </c>
+      <c r="C653">
+        <v>40726.1</v>
+      </c>
+      <c r="D653" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E653" t="s">
+        <v>57</v>
+      </c>
+      <c r="F653" t="s">
+        <v>765</v>
+      </c>
+      <c r="G653" t="s">
+        <v>765</v>
+      </c>
+      <c r="H653">
+        <v>1</v>
+      </c>
+      <c r="I653" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" t="s">
+        <v>58</v>
+      </c>
+      <c r="K653" t="s">
+        <v>59</v>
+      </c>
+      <c r="L653" t="s">
+        <v>798</v>
+      </c>
+      <c r="M653">
+        <v>200</v>
+      </c>
+      <c r="N653" t="s">
+        <v>22</v>
+      </c>
+      <c r="O653" t="s">
+        <v>38</v>
+      </c>
+      <c r="P653">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>20149</v>
+      </c>
+      <c r="B654" t="s">
+        <v>799</v>
+      </c>
+      <c r="C654">
+        <v>16155.13</v>
+      </c>
+      <c r="D654" s="2">
+        <v>45127.979375000003</v>
+      </c>
+      <c r="E654" t="s">
+        <v>57</v>
+      </c>
+      <c r="F654" t="s">
+        <v>765</v>
+      </c>
+      <c r="G654" t="s">
+        <v>765</v>
+      </c>
+      <c r="H654">
+        <v>1</v>
+      </c>
+      <c r="I654" t="s">
+        <v>18</v>
+      </c>
+      <c r="J654" t="s">
+        <v>58</v>
+      </c>
+      <c r="K654" t="s">
+        <v>59</v>
+      </c>
+      <c r="L654" t="s">
+        <v>800</v>
+      </c>
+      <c r="M654">
+        <v>200</v>
+      </c>
+      <c r="N654" t="s">
+        <v>22</v>
+      </c>
+      <c r="O654" t="s">
+        <v>38</v>
+      </c>
+      <c r="P654">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P609">
     <sortState ref="A2:Q624">

--- a/piloto_seguimiento/pres_146_pa.xlsx
+++ b/piloto_seguimiento/pres_146_pa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="902">
   <si>
     <t>id</t>
   </si>
@@ -2430,6 +2430,309 @@
   </si>
   <si>
     <t>weldinin</t>
+  </si>
+  <si>
+    <t>lantus 100 u.i caja con 1 cartucho con 3 ml rx3</t>
+  </si>
+  <si>
+    <t>galactus 100 ui ml solucion inyectable 3 ml  rx3</t>
+  </si>
+  <si>
+    <t>lantus solucion inyectable caja con 1 frasco ampula con 10 ml  rx3</t>
+  </si>
+  <si>
+    <t>toujeo 300 u  ml caja con 3 plumas precargadas con 1.5 ml  rx3</t>
+  </si>
+  <si>
+    <t>lantus lantus vial 10 ml inyeccion frasco ampula insulina glargina 3.64 mg</t>
+  </si>
+  <si>
+    <t>insulina glargina 100 ui aurax 1 inyeccion ampolleta</t>
+  </si>
+  <si>
+    <t>toujeo refrigerado 3 inyeccion pluma prellenada insulina glargina 300 ml</t>
+  </si>
+  <si>
+    <t>insulina glargina 100.0 ui aurax 10 ml solucion frasco ampula</t>
+  </si>
+  <si>
+    <t>toujeo refrigerado 1 inyeccion pluma prellenada insulina glargina 300 ml</t>
+  </si>
+  <si>
+    <t>bonglixan 100 ui fam 10 ml caja con 1</t>
+  </si>
+  <si>
+    <t>galactus 100 uiml 1 sol caja con 10 ml</t>
+  </si>
+  <si>
+    <t>galactus 100uiml c1cart de 3ml</t>
+  </si>
+  <si>
+    <t>galactus 100uiml caja con  5x3ml</t>
+  </si>
+  <si>
+    <t>lantus 100 uiml 1 fam caja con 10 ml</t>
+  </si>
+  <si>
+    <t>lantus solostar 100ui r amp caja con 1x3ml</t>
+  </si>
+  <si>
+    <t>lantus solostar 100ui r amp caja con 5x3ml</t>
+  </si>
+  <si>
+    <t>toujeo 300 uml 1 plp caja con 1.5 ml</t>
+  </si>
+  <si>
+    <t>toujeo 300 uml 3 plp caja con 1.5 ml</t>
+  </si>
+  <si>
+    <t>lantus solostar 100ui 5 amp x 3ml</t>
+  </si>
+  <si>
+    <t>abasaglar kwikpen 100uml 1 pluma</t>
+  </si>
+  <si>
+    <t>lantus frasco ampula 100ui 10ml</t>
+  </si>
+  <si>
+    <t>lantus solostar 100ui 1 amp x 3ml</t>
+  </si>
+  <si>
+    <t>toujeo solucion inyectable 300u1.5ml</t>
+  </si>
+  <si>
+    <t>abasaglar kwikpen 100ui 5 plumas</t>
+  </si>
+  <si>
+    <t>galactus 100ui 10 amp</t>
+  </si>
+  <si>
+    <t>insulina glargina 100ui 1 ampolleta marca del ahorro</t>
+  </si>
+  <si>
+    <t>abasaglar kwikpen 100uml 5 pen</t>
+  </si>
+  <si>
+    <t>abasaglar kwikpen 100uml 1 pen</t>
+  </si>
+  <si>
+    <t>lantus 100 uml con 1 pluma solo star precargada con 3 ml</t>
+  </si>
+  <si>
+    <t>lantus 100 uml con 1 frasco ampula con 10 ml</t>
+  </si>
+  <si>
+    <t>lantus 100 uml con 5 plumas solo star precargadas con 3 ml</t>
+  </si>
+  <si>
+    <t>toujeo 300 uml caja con 3 plumas precargadas con 1.5 ml</t>
+  </si>
+  <si>
+    <t>galactus 100uiml fco ampolleta con 10 ml</t>
+  </si>
+  <si>
+    <t>bonglixan 100 u.i 10 ml fa</t>
+  </si>
+  <si>
+    <t>lantus solostar solucion inyectable 100uml caja x 1 pen x 3ml</t>
+  </si>
+  <si>
+    <t>toujeo 450 ui1.5 ml 300 ui ml solucion inyectable caja x 1 pen x 1.5 ml</t>
+  </si>
+  <si>
+    <t>lantus 100uiml solucion inyectable vial x 10 ml</t>
+  </si>
+  <si>
+    <t>toujeo 300 uiml solucion inyectable</t>
+  </si>
+  <si>
+    <t>lantus 100iu cartucho 3ml</t>
+  </si>
+  <si>
+    <t>toujeo 300iu ml cartucho de 1 5ml solucion inyectable</t>
+  </si>
+  <si>
+    <t>basaglar 100iu cartucho de inyeccion de 3ml</t>
+  </si>
+  <si>
+    <t>cartucho basugine 100iu</t>
+  </si>
+  <si>
+    <t>lantus solostar 100iu pluma precargada de cartucho de 3ml</t>
+  </si>
+  <si>
+    <t>lantus 100iu inyeccion 10ml</t>
+  </si>
+  <si>
+    <t>glaritus 100iu inj vail</t>
+  </si>
+  <si>
+    <t>basalog 100iu inyeccion 3ml</t>
+  </si>
+  <si>
+    <t>inyeccion de recambio basalog 3ml</t>
+  </si>
+  <si>
+    <t>toujeo solostar 300u ml pluma precargada de 1 5ml solucion inyectable</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 1 carp vd inc x 3 ml</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 2 carp vd inc x 3 ml</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 5 carp vd inc x 3 ml</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 10 carp vd inc x 3 ml</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 1 carp vd inc x 3 ml  1 sist aplic 80 ui plas</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 2 carp vd inc x 3 ml  2 sist aplic 80 ui plas</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 5 carp vd inc x 3 ml  5 sist aplic 80 ui plas</t>
+  </si>
+  <si>
+    <t>basaglar 100 uiml sol inj ct 10 carp vd inc x 3 ml  10 sist aplic 80 ui plas</t>
+  </si>
+  <si>
+    <t>glargilin 100 uiml sol inj ct fa vd trans x 10 ml</t>
+  </si>
+  <si>
+    <t>glargilin 100 uiml sol inj ct car vd trans x 3 ml</t>
+  </si>
+  <si>
+    <t>glargilin 100 uiml sol inj ct 5 car vd trans x 3 ml</t>
+  </si>
+  <si>
+    <t>glargilin 100 uiml sol inj ct car vd trans x 3 ml  1 can aplic</t>
+  </si>
+  <si>
+    <t>glatus 100 uiml sol inj ct fa vd inc x 10 ml</t>
+  </si>
+  <si>
+    <t>glatus 100 uiml sol inj ct 1 car vd trans 3 ml</t>
+  </si>
+  <si>
+    <t>glatus 100 uiml sol inj ct 1 car vd trans 3 ml  1 can aplic</t>
+  </si>
+  <si>
+    <t>glatus 100 uiml sol inj ct 3 car vd trans 3 ml  3 can aplic</t>
+  </si>
+  <si>
+    <t>toujeo 300 uml sol inj ct 1 car vd trans x 15 ml  1 can aplic</t>
+  </si>
+  <si>
+    <t>toujeo 300 uml sol inj ct 3 car vd trans x 15 ml  3 can aplic</t>
+  </si>
+  <si>
+    <t>lantus 100 uml sol inj ct 1 car vd trans x 3 ml</t>
+  </si>
+  <si>
+    <t>lantus 100 uml sol inj ct 1 fa vd trans x 10 ml</t>
+  </si>
+  <si>
+    <t>lantus 100 uml sol inj ct 1 car vd trans x 3 ml   1 can aplic</t>
+  </si>
+  <si>
+    <t>lantus 100 uml sol inj ct 3 car vd trans x 3ml  3 can aplic</t>
+  </si>
+  <si>
+    <t>semglee 100 uml sol inj ct car vd trans x 3 ml  1 can aplic</t>
+  </si>
+  <si>
+    <t>semglee 100 uml sol inj ct 3 car vd trans x 3 ml  3 can aplic</t>
+  </si>
+  <si>
+    <t>semglee 100 uml sol inj ct 5 car vd trans x 3 ml  5 can aplic</t>
+  </si>
+  <si>
+    <t>semglee 100 uml sol inj ct 10 car vd trans x 3 ml  10 can aplic</t>
+  </si>
+  <si>
+    <t>abasaglar inj.sol 100uml btx5 pf.pen x3ml kwikpen dispensador de 1 a 80 unidades</t>
+  </si>
+  <si>
+    <t>lantus</t>
+  </si>
+  <si>
+    <t>lantus solostar</t>
+  </si>
+  <si>
+    <t>toujeo doble estrella</t>
+  </si>
+  <si>
+    <t>toujeo solostar</t>
+  </si>
+  <si>
+    <t>insulina glargina</t>
+  </si>
+  <si>
+    <t>fahorro</t>
+  </si>
+  <si>
+    <t>galactus</t>
+  </si>
+  <si>
+    <t>lantus solucion inyectable caja con</t>
+  </si>
+  <si>
+    <t>toujeo</t>
+  </si>
+  <si>
+    <t>lantus lantus vial</t>
+  </si>
+  <si>
+    <t>toujeo refrigerado</t>
+  </si>
+  <si>
+    <t>bonglixan</t>
+  </si>
+  <si>
+    <t>abasaglar kwikpen</t>
+  </si>
+  <si>
+    <t>lantus frasco ampula</t>
+  </si>
+  <si>
+    <t>toujeo solucion inyectable</t>
+  </si>
+  <si>
+    <t>farmacias del ahorro</t>
+  </si>
+  <si>
+    <t>lantus solostar solucion inyectable</t>
+  </si>
+  <si>
+    <t>basaglar</t>
+  </si>
+  <si>
+    <t>cartucho basugine</t>
+  </si>
+  <si>
+    <t>glaritus</t>
+  </si>
+  <si>
+    <t>basalog</t>
+  </si>
+  <si>
+    <t>inyeccion de recambio basalog</t>
+  </si>
+  <si>
+    <t>glargilin</t>
+  </si>
+  <si>
+    <t>glatus</t>
+  </si>
+  <si>
+    <t>semglee</t>
+  </si>
+  <si>
+    <t>abasaglar inj.sol</t>
   </si>
 </sst>
 </file>
@@ -2471,13 +2774,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P654"/>
+  <dimension ref="A1:P733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B629" workbookViewId="0">
-      <selection activeCell="P653" sqref="P653"/>
+    <sheetView tabSelected="1" topLeftCell="A712" workbookViewId="0">
+      <selection activeCell="I733" sqref="I733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35480,6 +35784,3956 @@
         <v>112</v>
       </c>
     </row>
+    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>17104</v>
+      </c>
+      <c r="B655" t="s">
+        <v>801</v>
+      </c>
+      <c r="C655">
+        <v>549</v>
+      </c>
+      <c r="D655" s="4">
+        <v>45127.738657407404</v>
+      </c>
+      <c r="E655" t="s">
+        <v>16</v>
+      </c>
+      <c r="F655" t="s">
+        <v>880</v>
+      </c>
+      <c r="G655" t="s">
+        <v>880</v>
+      </c>
+      <c r="H655">
+        <v>1</v>
+      </c>
+      <c r="I655" t="s">
+        <v>752</v>
+      </c>
+      <c r="J655" t="s">
+        <v>19</v>
+      </c>
+      <c r="K655" t="s">
+        <v>20</v>
+      </c>
+      <c r="L655" t="s">
+        <v>876</v>
+      </c>
+      <c r="M655">
+        <v>10.92</v>
+      </c>
+      <c r="N655" t="s">
+        <v>22</v>
+      </c>
+      <c r="O655" t="s">
+        <v>223</v>
+      </c>
+      <c r="P655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>17105</v>
+      </c>
+      <c r="B656" t="s">
+        <v>802</v>
+      </c>
+      <c r="C656">
+        <v>222.01</v>
+      </c>
+      <c r="D656" s="4">
+        <v>45127.738657407404</v>
+      </c>
+      <c r="E656" t="s">
+        <v>16</v>
+      </c>
+      <c r="F656" t="s">
+        <v>880</v>
+      </c>
+      <c r="G656" t="s">
+        <v>880</v>
+      </c>
+      <c r="H656">
+        <v>1</v>
+      </c>
+      <c r="I656" t="s">
+        <v>752</v>
+      </c>
+      <c r="J656" t="s">
+        <v>19</v>
+      </c>
+      <c r="K656" t="s">
+        <v>20</v>
+      </c>
+      <c r="L656" t="s">
+        <v>882</v>
+      </c>
+      <c r="M656">
+        <v>10.92</v>
+      </c>
+      <c r="N656" t="s">
+        <v>22</v>
+      </c>
+      <c r="O656" t="s">
+        <v>223</v>
+      </c>
+      <c r="P656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>17108</v>
+      </c>
+      <c r="B657" t="s">
+        <v>803</v>
+      </c>
+      <c r="C657">
+        <v>1995</v>
+      </c>
+      <c r="D657" s="4">
+        <v>45127.738657407404</v>
+      </c>
+      <c r="E657" t="s">
+        <v>16</v>
+      </c>
+      <c r="F657" t="s">
+        <v>880</v>
+      </c>
+      <c r="G657" t="s">
+        <v>880</v>
+      </c>
+      <c r="H657">
+        <v>1</v>
+      </c>
+      <c r="I657" t="s">
+        <v>752</v>
+      </c>
+      <c r="J657" t="s">
+        <v>19</v>
+      </c>
+      <c r="K657" t="s">
+        <v>20</v>
+      </c>
+      <c r="L657" t="s">
+        <v>883</v>
+      </c>
+      <c r="M657">
+        <v>36.4</v>
+      </c>
+      <c r="N657" t="s">
+        <v>22</v>
+      </c>
+      <c r="O657" t="s">
+        <v>223</v>
+      </c>
+      <c r="P657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>17109</v>
+      </c>
+      <c r="B658" t="s">
+        <v>804</v>
+      </c>
+      <c r="C658">
+        <v>2194</v>
+      </c>
+      <c r="D658" s="4">
+        <v>45127.738657407404</v>
+      </c>
+      <c r="E658" t="s">
+        <v>16</v>
+      </c>
+      <c r="F658" t="s">
+        <v>880</v>
+      </c>
+      <c r="G658" t="s">
+        <v>880</v>
+      </c>
+      <c r="H658">
+        <v>1</v>
+      </c>
+      <c r="I658" t="s">
+        <v>752</v>
+      </c>
+      <c r="J658" t="s">
+        <v>19</v>
+      </c>
+      <c r="K658" t="s">
+        <v>20</v>
+      </c>
+      <c r="L658" t="s">
+        <v>884</v>
+      </c>
+      <c r="M658">
+        <v>16.38</v>
+      </c>
+      <c r="N658" t="s">
+        <v>22</v>
+      </c>
+      <c r="O658" t="s">
+        <v>223</v>
+      </c>
+      <c r="P658">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>17112</v>
+      </c>
+      <c r="B659" t="s">
+        <v>805</v>
+      </c>
+      <c r="C659">
+        <v>1973</v>
+      </c>
+      <c r="D659" s="4">
+        <v>45127.738842592589</v>
+      </c>
+      <c r="E659" t="s">
+        <v>25</v>
+      </c>
+      <c r="F659" t="s">
+        <v>880</v>
+      </c>
+      <c r="G659" t="s">
+        <v>880</v>
+      </c>
+      <c r="H659">
+        <v>1</v>
+      </c>
+      <c r="I659" t="s">
+        <v>752</v>
+      </c>
+      <c r="J659" t="s">
+        <v>26</v>
+      </c>
+      <c r="K659" t="s">
+        <v>20</v>
+      </c>
+      <c r="L659" t="s">
+        <v>885</v>
+      </c>
+      <c r="M659">
+        <v>36.4</v>
+      </c>
+      <c r="N659" t="s">
+        <v>22</v>
+      </c>
+      <c r="O659" t="s">
+        <v>223</v>
+      </c>
+      <c r="P659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>17113</v>
+      </c>
+      <c r="B660" t="s">
+        <v>806</v>
+      </c>
+      <c r="C660">
+        <v>498</v>
+      </c>
+      <c r="D660" s="4">
+        <v>45127.738842592589</v>
+      </c>
+      <c r="E660" t="s">
+        <v>25</v>
+      </c>
+      <c r="F660" t="s">
+        <v>880</v>
+      </c>
+      <c r="G660" t="s">
+        <v>880</v>
+      </c>
+      <c r="H660">
+        <v>1</v>
+      </c>
+      <c r="I660" t="s">
+        <v>752</v>
+      </c>
+      <c r="J660" t="s">
+        <v>26</v>
+      </c>
+      <c r="K660" t="s">
+        <v>20</v>
+      </c>
+      <c r="L660" t="s">
+        <v>880</v>
+      </c>
+      <c r="M660">
+        <v>36.4</v>
+      </c>
+      <c r="N660" t="s">
+        <v>22</v>
+      </c>
+      <c r="O660" t="s">
+        <v>223</v>
+      </c>
+      <c r="P660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>17114</v>
+      </c>
+      <c r="B661" t="s">
+        <v>807</v>
+      </c>
+      <c r="C661">
+        <v>2210.5</v>
+      </c>
+      <c r="D661" s="4">
+        <v>45127.738842592589</v>
+      </c>
+      <c r="E661" t="s">
+        <v>25</v>
+      </c>
+      <c r="F661" t="s">
+        <v>880</v>
+      </c>
+      <c r="G661" t="s">
+        <v>880</v>
+      </c>
+      <c r="H661">
+        <v>1</v>
+      </c>
+      <c r="I661" t="s">
+        <v>752</v>
+      </c>
+      <c r="J661" t="s">
+        <v>26</v>
+      </c>
+      <c r="K661" t="s">
+        <v>20</v>
+      </c>
+      <c r="L661" t="s">
+        <v>886</v>
+      </c>
+      <c r="M661">
+        <v>16.38</v>
+      </c>
+      <c r="N661" t="s">
+        <v>22</v>
+      </c>
+      <c r="O661" t="s">
+        <v>223</v>
+      </c>
+      <c r="P661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>17115</v>
+      </c>
+      <c r="B662" t="s">
+        <v>808</v>
+      </c>
+      <c r="C662">
+        <v>498</v>
+      </c>
+      <c r="D662" s="4">
+        <v>45127.738842592589</v>
+      </c>
+      <c r="E662" t="s">
+        <v>25</v>
+      </c>
+      <c r="F662" t="s">
+        <v>880</v>
+      </c>
+      <c r="G662" t="s">
+        <v>880</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+      <c r="I662" t="s">
+        <v>752</v>
+      </c>
+      <c r="J662" t="s">
+        <v>26</v>
+      </c>
+      <c r="K662" t="s">
+        <v>20</v>
+      </c>
+      <c r="L662" t="s">
+        <v>880</v>
+      </c>
+      <c r="M662">
+        <v>36.4</v>
+      </c>
+      <c r="N662" t="s">
+        <v>22</v>
+      </c>
+      <c r="O662" t="s">
+        <v>223</v>
+      </c>
+      <c r="P662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>17116</v>
+      </c>
+      <c r="B663" t="s">
+        <v>809</v>
+      </c>
+      <c r="C663">
+        <v>798.5</v>
+      </c>
+      <c r="D663" s="4">
+        <v>45127.738842592589</v>
+      </c>
+      <c r="E663" t="s">
+        <v>25</v>
+      </c>
+      <c r="F663" t="s">
+        <v>880</v>
+      </c>
+      <c r="G663" t="s">
+        <v>880</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663" t="s">
+        <v>752</v>
+      </c>
+      <c r="J663" t="s">
+        <v>26</v>
+      </c>
+      <c r="K663" t="s">
+        <v>20</v>
+      </c>
+      <c r="L663" t="s">
+        <v>886</v>
+      </c>
+      <c r="M663">
+        <v>16.38</v>
+      </c>
+      <c r="N663" t="s">
+        <v>22</v>
+      </c>
+      <c r="O663" t="s">
+        <v>223</v>
+      </c>
+      <c r="P663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>17117</v>
+      </c>
+      <c r="B664" t="s">
+        <v>810</v>
+      </c>
+      <c r="C664">
+        <v>1098.04</v>
+      </c>
+      <c r="D664" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E664" t="s">
+        <v>28</v>
+      </c>
+      <c r="F664" t="s">
+        <v>880</v>
+      </c>
+      <c r="G664" t="s">
+        <v>880</v>
+      </c>
+      <c r="H664">
+        <v>1</v>
+      </c>
+      <c r="I664" t="s">
+        <v>752</v>
+      </c>
+      <c r="J664" t="s">
+        <v>29</v>
+      </c>
+      <c r="K664" t="s">
+        <v>20</v>
+      </c>
+      <c r="L664" t="s">
+        <v>887</v>
+      </c>
+      <c r="M664">
+        <v>36.4</v>
+      </c>
+      <c r="N664" t="s">
+        <v>22</v>
+      </c>
+      <c r="O664" t="s">
+        <v>223</v>
+      </c>
+      <c r="P664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>17118</v>
+      </c>
+      <c r="B665" t="s">
+        <v>811</v>
+      </c>
+      <c r="C665">
+        <v>1038.02</v>
+      </c>
+      <c r="D665" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E665" t="s">
+        <v>28</v>
+      </c>
+      <c r="F665" t="s">
+        <v>880</v>
+      </c>
+      <c r="G665" t="s">
+        <v>880</v>
+      </c>
+      <c r="H665">
+        <v>1</v>
+      </c>
+      <c r="I665" t="s">
+        <v>752</v>
+      </c>
+      <c r="J665" t="s">
+        <v>29</v>
+      </c>
+      <c r="K665" t="s">
+        <v>20</v>
+      </c>
+      <c r="L665" t="s">
+        <v>882</v>
+      </c>
+      <c r="M665">
+        <v>36.4</v>
+      </c>
+      <c r="N665" t="s">
+        <v>22</v>
+      </c>
+      <c r="O665" t="s">
+        <v>223</v>
+      </c>
+      <c r="P665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>17119</v>
+      </c>
+      <c r="B666" t="s">
+        <v>812</v>
+      </c>
+      <c r="C666">
+        <v>278.01</v>
+      </c>
+      <c r="D666" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E666" t="s">
+        <v>28</v>
+      </c>
+      <c r="F666" t="s">
+        <v>880</v>
+      </c>
+      <c r="G666" t="s">
+        <v>880</v>
+      </c>
+      <c r="H666">
+        <v>1</v>
+      </c>
+      <c r="I666" t="s">
+        <v>752</v>
+      </c>
+      <c r="J666" t="s">
+        <v>29</v>
+      </c>
+      <c r="K666" t="s">
+        <v>20</v>
+      </c>
+      <c r="L666" t="s">
+        <v>882</v>
+      </c>
+      <c r="M666">
+        <v>10.92</v>
+      </c>
+      <c r="N666" t="s">
+        <v>22</v>
+      </c>
+      <c r="O666" t="s">
+        <v>223</v>
+      </c>
+      <c r="P666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>17120</v>
+      </c>
+      <c r="B667" t="s">
+        <v>813</v>
+      </c>
+      <c r="C667">
+        <v>1174.8399999999999</v>
+      </c>
+      <c r="D667" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E667" t="s">
+        <v>28</v>
+      </c>
+      <c r="F667" t="s">
+        <v>880</v>
+      </c>
+      <c r="G667" t="s">
+        <v>880</v>
+      </c>
+      <c r="H667">
+        <v>1</v>
+      </c>
+      <c r="I667" t="s">
+        <v>752</v>
+      </c>
+      <c r="J667" t="s">
+        <v>29</v>
+      </c>
+      <c r="K667" t="s">
+        <v>20</v>
+      </c>
+      <c r="L667" t="s">
+        <v>882</v>
+      </c>
+      <c r="M667">
+        <v>10.92</v>
+      </c>
+      <c r="N667" t="s">
+        <v>22</v>
+      </c>
+      <c r="O667" t="s">
+        <v>223</v>
+      </c>
+      <c r="P667">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>17121</v>
+      </c>
+      <c r="B668" t="s">
+        <v>814</v>
+      </c>
+      <c r="C668">
+        <v>1983.04</v>
+      </c>
+      <c r="D668" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E668" t="s">
+        <v>28</v>
+      </c>
+      <c r="F668" t="s">
+        <v>880</v>
+      </c>
+      <c r="G668" t="s">
+        <v>880</v>
+      </c>
+      <c r="H668">
+        <v>1</v>
+      </c>
+      <c r="I668" t="s">
+        <v>752</v>
+      </c>
+      <c r="J668" t="s">
+        <v>29</v>
+      </c>
+      <c r="K668" t="s">
+        <v>20</v>
+      </c>
+      <c r="L668" t="s">
+        <v>876</v>
+      </c>
+      <c r="M668">
+        <v>36.4</v>
+      </c>
+      <c r="N668" t="s">
+        <v>22</v>
+      </c>
+      <c r="O668" t="s">
+        <v>223</v>
+      </c>
+      <c r="P668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>17122</v>
+      </c>
+      <c r="B669" t="s">
+        <v>815</v>
+      </c>
+      <c r="C669">
+        <v>513.97</v>
+      </c>
+      <c r="D669" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E669" t="s">
+        <v>28</v>
+      </c>
+      <c r="F669" t="s">
+        <v>880</v>
+      </c>
+      <c r="G669" t="s">
+        <v>880</v>
+      </c>
+      <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669" t="s">
+        <v>752</v>
+      </c>
+      <c r="J669" t="s">
+        <v>29</v>
+      </c>
+      <c r="K669" t="s">
+        <v>20</v>
+      </c>
+      <c r="L669" t="s">
+        <v>877</v>
+      </c>
+      <c r="M669">
+        <v>10.92</v>
+      </c>
+      <c r="N669" t="s">
+        <v>22</v>
+      </c>
+      <c r="O669" t="s">
+        <v>223</v>
+      </c>
+      <c r="P669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>17123</v>
+      </c>
+      <c r="B670" t="s">
+        <v>816</v>
+      </c>
+      <c r="C670">
+        <v>1924.73</v>
+      </c>
+      <c r="D670" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E670" t="s">
+        <v>28</v>
+      </c>
+      <c r="F670" t="s">
+        <v>880</v>
+      </c>
+      <c r="G670" t="s">
+        <v>880</v>
+      </c>
+      <c r="H670">
+        <v>1</v>
+      </c>
+      <c r="I670" t="s">
+        <v>752</v>
+      </c>
+      <c r="J670" t="s">
+        <v>29</v>
+      </c>
+      <c r="K670" t="s">
+        <v>20</v>
+      </c>
+      <c r="L670" t="s">
+        <v>877</v>
+      </c>
+      <c r="M670">
+        <v>10.92</v>
+      </c>
+      <c r="N670" t="s">
+        <v>22</v>
+      </c>
+      <c r="O670" t="s">
+        <v>223</v>
+      </c>
+      <c r="P670">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>17128</v>
+      </c>
+      <c r="B671" t="s">
+        <v>817</v>
+      </c>
+      <c r="C671">
+        <v>907.47</v>
+      </c>
+      <c r="D671" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E671" t="s">
+        <v>28</v>
+      </c>
+      <c r="F671" t="s">
+        <v>880</v>
+      </c>
+      <c r="G671" t="s">
+        <v>880</v>
+      </c>
+      <c r="H671">
+        <v>1</v>
+      </c>
+      <c r="I671" t="s">
+        <v>752</v>
+      </c>
+      <c r="J671" t="s">
+        <v>29</v>
+      </c>
+      <c r="K671" t="s">
+        <v>20</v>
+      </c>
+      <c r="L671" t="s">
+        <v>884</v>
+      </c>
+      <c r="M671">
+        <v>16.38</v>
+      </c>
+      <c r="N671" t="s">
+        <v>22</v>
+      </c>
+      <c r="O671" t="s">
+        <v>223</v>
+      </c>
+      <c r="P671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>17129</v>
+      </c>
+      <c r="B672" t="s">
+        <v>818</v>
+      </c>
+      <c r="C672">
+        <v>2544.1999999999998</v>
+      </c>
+      <c r="D672" s="4">
+        <v>45127.738912037035</v>
+      </c>
+      <c r="E672" t="s">
+        <v>28</v>
+      </c>
+      <c r="F672" t="s">
+        <v>880</v>
+      </c>
+      <c r="G672" t="s">
+        <v>880</v>
+      </c>
+      <c r="H672">
+        <v>1</v>
+      </c>
+      <c r="I672" t="s">
+        <v>752</v>
+      </c>
+      <c r="J672" t="s">
+        <v>29</v>
+      </c>
+      <c r="K672" t="s">
+        <v>20</v>
+      </c>
+      <c r="L672" t="s">
+        <v>884</v>
+      </c>
+      <c r="M672">
+        <v>16.38</v>
+      </c>
+      <c r="N672" t="s">
+        <v>22</v>
+      </c>
+      <c r="O672" t="s">
+        <v>223</v>
+      </c>
+      <c r="P672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>17130</v>
+      </c>
+      <c r="B673" t="s">
+        <v>819</v>
+      </c>
+      <c r="C673">
+        <v>1922</v>
+      </c>
+      <c r="D673" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E673" t="s">
+        <v>336</v>
+      </c>
+      <c r="F673" t="s">
+        <v>880</v>
+      </c>
+      <c r="G673" t="s">
+        <v>880</v>
+      </c>
+      <c r="H673">
+        <v>1</v>
+      </c>
+      <c r="I673" t="s">
+        <v>752</v>
+      </c>
+      <c r="J673" t="s">
+        <v>336</v>
+      </c>
+      <c r="K673" t="s">
+        <v>20</v>
+      </c>
+      <c r="L673" t="s">
+        <v>877</v>
+      </c>
+      <c r="M673">
+        <v>10.92</v>
+      </c>
+      <c r="N673" t="s">
+        <v>22</v>
+      </c>
+      <c r="O673" t="s">
+        <v>223</v>
+      </c>
+      <c r="P673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>17133</v>
+      </c>
+      <c r="B674" t="s">
+        <v>820</v>
+      </c>
+      <c r="C674">
+        <v>331.5</v>
+      </c>
+      <c r="D674" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E674" t="s">
+        <v>336</v>
+      </c>
+      <c r="F674" t="s">
+        <v>880</v>
+      </c>
+      <c r="G674" t="s">
+        <v>880</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674" t="s">
+        <v>752</v>
+      </c>
+      <c r="J674" t="s">
+        <v>336</v>
+      </c>
+      <c r="K674" t="s">
+        <v>20</v>
+      </c>
+      <c r="L674" t="s">
+        <v>888</v>
+      </c>
+      <c r="M674">
+        <v>10.92</v>
+      </c>
+      <c r="N674" t="s">
+        <v>22</v>
+      </c>
+      <c r="O674" t="s">
+        <v>223</v>
+      </c>
+      <c r="P674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>17134</v>
+      </c>
+      <c r="B675" t="s">
+        <v>821</v>
+      </c>
+      <c r="C675">
+        <v>1955</v>
+      </c>
+      <c r="D675" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E675" t="s">
+        <v>336</v>
+      </c>
+      <c r="F675" t="s">
+        <v>880</v>
+      </c>
+      <c r="G675" t="s">
+        <v>880</v>
+      </c>
+      <c r="H675">
+        <v>1</v>
+      </c>
+      <c r="I675" t="s">
+        <v>752</v>
+      </c>
+      <c r="J675" t="s">
+        <v>336</v>
+      </c>
+      <c r="K675" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" t="s">
+        <v>889</v>
+      </c>
+      <c r="M675">
+        <v>36.4</v>
+      </c>
+      <c r="N675" t="s">
+        <v>22</v>
+      </c>
+      <c r="O675" t="s">
+        <v>223</v>
+      </c>
+      <c r="P675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>17135</v>
+      </c>
+      <c r="B676" t="s">
+        <v>822</v>
+      </c>
+      <c r="C676">
+        <v>516</v>
+      </c>
+      <c r="D676" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E676" t="s">
+        <v>336</v>
+      </c>
+      <c r="F676" t="s">
+        <v>880</v>
+      </c>
+      <c r="G676" t="s">
+        <v>880</v>
+      </c>
+      <c r="H676">
+        <v>1</v>
+      </c>
+      <c r="I676" t="s">
+        <v>752</v>
+      </c>
+      <c r="J676" t="s">
+        <v>336</v>
+      </c>
+      <c r="K676" t="s">
+        <v>20</v>
+      </c>
+      <c r="L676" t="s">
+        <v>877</v>
+      </c>
+      <c r="M676">
+        <v>10.92</v>
+      </c>
+      <c r="N676" t="s">
+        <v>22</v>
+      </c>
+      <c r="O676" t="s">
+        <v>223</v>
+      </c>
+      <c r="P676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>17137</v>
+      </c>
+      <c r="B677" t="s">
+        <v>823</v>
+      </c>
+      <c r="C677">
+        <v>2020</v>
+      </c>
+      <c r="D677" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E677" t="s">
+        <v>336</v>
+      </c>
+      <c r="F677" t="s">
+        <v>880</v>
+      </c>
+      <c r="G677" t="s">
+        <v>880</v>
+      </c>
+      <c r="H677">
+        <v>1</v>
+      </c>
+      <c r="I677" t="s">
+        <v>752</v>
+      </c>
+      <c r="J677" t="s">
+        <v>336</v>
+      </c>
+      <c r="K677" t="s">
+        <v>20</v>
+      </c>
+      <c r="L677" t="s">
+        <v>890</v>
+      </c>
+      <c r="M677">
+        <v>16.38</v>
+      </c>
+      <c r="N677" t="s">
+        <v>22</v>
+      </c>
+      <c r="O677" t="s">
+        <v>223</v>
+      </c>
+      <c r="P677">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>17138</v>
+      </c>
+      <c r="B678" t="s">
+        <v>824</v>
+      </c>
+      <c r="C678">
+        <v>1484</v>
+      </c>
+      <c r="D678" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E678" t="s">
+        <v>336</v>
+      </c>
+      <c r="F678" t="s">
+        <v>880</v>
+      </c>
+      <c r="G678" t="s">
+        <v>880</v>
+      </c>
+      <c r="H678">
+        <v>1</v>
+      </c>
+      <c r="I678" t="s">
+        <v>752</v>
+      </c>
+      <c r="J678" t="s">
+        <v>336</v>
+      </c>
+      <c r="K678" t="s">
+        <v>20</v>
+      </c>
+      <c r="L678" t="s">
+        <v>888</v>
+      </c>
+      <c r="M678">
+        <v>10.92</v>
+      </c>
+      <c r="N678" t="s">
+        <v>22</v>
+      </c>
+      <c r="O678" t="s">
+        <v>223</v>
+      </c>
+      <c r="P678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>17139</v>
+      </c>
+      <c r="B679" t="s">
+        <v>825</v>
+      </c>
+      <c r="C679">
+        <v>986</v>
+      </c>
+      <c r="D679" s="4">
+        <v>45127.739120370374</v>
+      </c>
+      <c r="E679" t="s">
+        <v>336</v>
+      </c>
+      <c r="F679" t="s">
+        <v>880</v>
+      </c>
+      <c r="G679" t="s">
+        <v>880</v>
+      </c>
+      <c r="H679">
+        <v>1</v>
+      </c>
+      <c r="I679" t="s">
+        <v>752</v>
+      </c>
+      <c r="J679" t="s">
+        <v>336</v>
+      </c>
+      <c r="K679" t="s">
+        <v>20</v>
+      </c>
+      <c r="L679" t="s">
+        <v>882</v>
+      </c>
+      <c r="M679">
+        <v>36.4</v>
+      </c>
+      <c r="N679" t="s">
+        <v>22</v>
+      </c>
+      <c r="O679" t="s">
+        <v>223</v>
+      </c>
+      <c r="P679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>17140</v>
+      </c>
+      <c r="B680" t="s">
+        <v>826</v>
+      </c>
+      <c r="C680">
+        <v>466</v>
+      </c>
+      <c r="D680" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E680" t="s">
+        <v>881</v>
+      </c>
+      <c r="F680" t="s">
+        <v>880</v>
+      </c>
+      <c r="G680" t="s">
+        <v>880</v>
+      </c>
+      <c r="H680">
+        <v>1</v>
+      </c>
+      <c r="I680" t="s">
+        <v>752</v>
+      </c>
+      <c r="J680" t="s">
+        <v>891</v>
+      </c>
+      <c r="K680" t="s">
+        <v>20</v>
+      </c>
+      <c r="L680" t="s">
+        <v>880</v>
+      </c>
+      <c r="M680">
+        <v>36.4</v>
+      </c>
+      <c r="N680" t="s">
+        <v>22</v>
+      </c>
+      <c r="O680" t="s">
+        <v>223</v>
+      </c>
+      <c r="P680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>17141</v>
+      </c>
+      <c r="B681" t="s">
+        <v>827</v>
+      </c>
+      <c r="C681">
+        <v>1298</v>
+      </c>
+      <c r="D681" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E681" t="s">
+        <v>881</v>
+      </c>
+      <c r="F681" t="s">
+        <v>880</v>
+      </c>
+      <c r="G681" t="s">
+        <v>880</v>
+      </c>
+      <c r="H681">
+        <v>1</v>
+      </c>
+      <c r="I681" t="s">
+        <v>752</v>
+      </c>
+      <c r="J681" t="s">
+        <v>891</v>
+      </c>
+      <c r="K681" t="s">
+        <v>20</v>
+      </c>
+      <c r="L681" t="s">
+        <v>888</v>
+      </c>
+      <c r="M681">
+        <v>10.92</v>
+      </c>
+      <c r="N681" t="s">
+        <v>22</v>
+      </c>
+      <c r="O681" t="s">
+        <v>223</v>
+      </c>
+      <c r="P681">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>17142</v>
+      </c>
+      <c r="B682" t="s">
+        <v>828</v>
+      </c>
+      <c r="C682">
+        <v>351</v>
+      </c>
+      <c r="D682" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E682" t="s">
+        <v>881</v>
+      </c>
+      <c r="F682" t="s">
+        <v>880</v>
+      </c>
+      <c r="G682" t="s">
+        <v>880</v>
+      </c>
+      <c r="H682">
+        <v>1</v>
+      </c>
+      <c r="I682" t="s">
+        <v>752</v>
+      </c>
+      <c r="J682" t="s">
+        <v>891</v>
+      </c>
+      <c r="K682" t="s">
+        <v>20</v>
+      </c>
+      <c r="L682" t="s">
+        <v>888</v>
+      </c>
+      <c r="M682">
+        <v>10.92</v>
+      </c>
+      <c r="N682" t="s">
+        <v>22</v>
+      </c>
+      <c r="O682" t="s">
+        <v>223</v>
+      </c>
+      <c r="P682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>17145</v>
+      </c>
+      <c r="B683" t="s">
+        <v>829</v>
+      </c>
+      <c r="C683">
+        <v>531</v>
+      </c>
+      <c r="D683" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E683" t="s">
+        <v>881</v>
+      </c>
+      <c r="F683" t="s">
+        <v>880</v>
+      </c>
+      <c r="G683" t="s">
+        <v>880</v>
+      </c>
+      <c r="H683">
+        <v>1</v>
+      </c>
+      <c r="I683" t="s">
+        <v>752</v>
+      </c>
+      <c r="J683" t="s">
+        <v>891</v>
+      </c>
+      <c r="K683" t="s">
+        <v>20</v>
+      </c>
+      <c r="L683" t="s">
+        <v>876</v>
+      </c>
+      <c r="M683">
+        <v>10.92</v>
+      </c>
+      <c r="N683" t="s">
+        <v>22</v>
+      </c>
+      <c r="O683" t="s">
+        <v>223</v>
+      </c>
+      <c r="P683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>17146</v>
+      </c>
+      <c r="B684" t="s">
+        <v>830</v>
+      </c>
+      <c r="C684">
+        <v>1993</v>
+      </c>
+      <c r="D684" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E684" t="s">
+        <v>881</v>
+      </c>
+      <c r="F684" t="s">
+        <v>880</v>
+      </c>
+      <c r="G684" t="s">
+        <v>880</v>
+      </c>
+      <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684" t="s">
+        <v>752</v>
+      </c>
+      <c r="J684" t="s">
+        <v>891</v>
+      </c>
+      <c r="K684" t="s">
+        <v>20</v>
+      </c>
+      <c r="L684" t="s">
+        <v>876</v>
+      </c>
+      <c r="M684">
+        <v>36.4</v>
+      </c>
+      <c r="N684" t="s">
+        <v>22</v>
+      </c>
+      <c r="O684" t="s">
+        <v>223</v>
+      </c>
+      <c r="P684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>17147</v>
+      </c>
+      <c r="B685" t="s">
+        <v>831</v>
+      </c>
+      <c r="C685">
+        <v>1733</v>
+      </c>
+      <c r="D685" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E685" t="s">
+        <v>881</v>
+      </c>
+      <c r="F685" t="s">
+        <v>880</v>
+      </c>
+      <c r="G685" t="s">
+        <v>880</v>
+      </c>
+      <c r="H685">
+        <v>1</v>
+      </c>
+      <c r="I685" t="s">
+        <v>752</v>
+      </c>
+      <c r="J685" t="s">
+        <v>891</v>
+      </c>
+      <c r="K685" t="s">
+        <v>20</v>
+      </c>
+      <c r="L685" t="s">
+        <v>876</v>
+      </c>
+      <c r="M685">
+        <v>10.92</v>
+      </c>
+      <c r="N685" t="s">
+        <v>22</v>
+      </c>
+      <c r="O685" t="s">
+        <v>223</v>
+      </c>
+      <c r="P685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>17148</v>
+      </c>
+      <c r="B686" t="s">
+        <v>832</v>
+      </c>
+      <c r="C686">
+        <v>2340</v>
+      </c>
+      <c r="D686" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E686" t="s">
+        <v>881</v>
+      </c>
+      <c r="F686" t="s">
+        <v>880</v>
+      </c>
+      <c r="G686" t="s">
+        <v>880</v>
+      </c>
+      <c r="H686">
+        <v>1</v>
+      </c>
+      <c r="I686" t="s">
+        <v>752</v>
+      </c>
+      <c r="J686" t="s">
+        <v>891</v>
+      </c>
+      <c r="K686" t="s">
+        <v>20</v>
+      </c>
+      <c r="L686" t="s">
+        <v>884</v>
+      </c>
+      <c r="M686">
+        <v>16.38</v>
+      </c>
+      <c r="N686" t="s">
+        <v>22</v>
+      </c>
+      <c r="O686" t="s">
+        <v>223</v>
+      </c>
+      <c r="P686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>17162</v>
+      </c>
+      <c r="B687" t="s">
+        <v>833</v>
+      </c>
+      <c r="C687">
+        <v>1051</v>
+      </c>
+      <c r="D687" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E687" t="s">
+        <v>881</v>
+      </c>
+      <c r="F687" t="s">
+        <v>880</v>
+      </c>
+      <c r="G687" t="s">
+        <v>880</v>
+      </c>
+      <c r="H687">
+        <v>1</v>
+      </c>
+      <c r="I687" t="s">
+        <v>752</v>
+      </c>
+      <c r="J687" t="s">
+        <v>891</v>
+      </c>
+      <c r="K687" t="s">
+        <v>20</v>
+      </c>
+      <c r="L687" t="s">
+        <v>882</v>
+      </c>
+      <c r="M687">
+        <v>36.4</v>
+      </c>
+      <c r="N687" t="s">
+        <v>22</v>
+      </c>
+      <c r="O687" t="s">
+        <v>223</v>
+      </c>
+      <c r="P687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>17169</v>
+      </c>
+      <c r="B688" t="s">
+        <v>834</v>
+      </c>
+      <c r="C688">
+        <v>1098</v>
+      </c>
+      <c r="D688" s="4">
+        <v>45127.740706018521</v>
+      </c>
+      <c r="E688" t="s">
+        <v>881</v>
+      </c>
+      <c r="F688" t="s">
+        <v>880</v>
+      </c>
+      <c r="G688" t="s">
+        <v>880</v>
+      </c>
+      <c r="H688">
+        <v>1</v>
+      </c>
+      <c r="I688" t="s">
+        <v>752</v>
+      </c>
+      <c r="J688" t="s">
+        <v>891</v>
+      </c>
+      <c r="K688" t="s">
+        <v>20</v>
+      </c>
+      <c r="L688" t="s">
+        <v>887</v>
+      </c>
+      <c r="M688">
+        <v>36.4</v>
+      </c>
+      <c r="N688" t="s">
+        <v>22</v>
+      </c>
+      <c r="O688" t="s">
+        <v>223</v>
+      </c>
+      <c r="P688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>17232</v>
+      </c>
+      <c r="B689" t="s">
+        <v>835</v>
+      </c>
+      <c r="C689">
+        <v>162.07</v>
+      </c>
+      <c r="D689" s="4">
+        <v>45127.741516203707</v>
+      </c>
+      <c r="E689" t="s">
+        <v>371</v>
+      </c>
+      <c r="F689" t="s">
+        <v>880</v>
+      </c>
+      <c r="G689" t="s">
+        <v>880</v>
+      </c>
+      <c r="H689">
+        <v>1</v>
+      </c>
+      <c r="I689" t="s">
+        <v>752</v>
+      </c>
+      <c r="J689" t="s">
+        <v>375</v>
+      </c>
+      <c r="K689" t="s">
+        <v>41</v>
+      </c>
+      <c r="L689" t="s">
+        <v>892</v>
+      </c>
+      <c r="M689">
+        <v>10.92</v>
+      </c>
+      <c r="N689" t="s">
+        <v>22</v>
+      </c>
+      <c r="O689" t="s">
+        <v>223</v>
+      </c>
+      <c r="P689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>17233</v>
+      </c>
+      <c r="B690" t="s">
+        <v>836</v>
+      </c>
+      <c r="C690">
+        <v>245.42</v>
+      </c>
+      <c r="D690" s="4">
+        <v>45127.741516203707</v>
+      </c>
+      <c r="E690" t="s">
+        <v>371</v>
+      </c>
+      <c r="F690" t="s">
+        <v>880</v>
+      </c>
+      <c r="G690" t="s">
+        <v>880</v>
+      </c>
+      <c r="H690">
+        <v>1</v>
+      </c>
+      <c r="I690" t="s">
+        <v>752</v>
+      </c>
+      <c r="J690" t="s">
+        <v>375</v>
+      </c>
+      <c r="K690" t="s">
+        <v>41</v>
+      </c>
+      <c r="L690" t="s">
+        <v>884</v>
+      </c>
+      <c r="M690">
+        <v>16.38</v>
+      </c>
+      <c r="N690" t="s">
+        <v>22</v>
+      </c>
+      <c r="O690" t="s">
+        <v>223</v>
+      </c>
+      <c r="P690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>17234</v>
+      </c>
+      <c r="B691" t="s">
+        <v>837</v>
+      </c>
+      <c r="C691">
+        <v>539.38</v>
+      </c>
+      <c r="D691" s="4">
+        <v>45127.741516203707</v>
+      </c>
+      <c r="E691" t="s">
+        <v>371</v>
+      </c>
+      <c r="F691" t="s">
+        <v>880</v>
+      </c>
+      <c r="G691" t="s">
+        <v>880</v>
+      </c>
+      <c r="H691">
+        <v>1</v>
+      </c>
+      <c r="I691" t="s">
+        <v>752</v>
+      </c>
+      <c r="J691" t="s">
+        <v>375</v>
+      </c>
+      <c r="K691" t="s">
+        <v>41</v>
+      </c>
+      <c r="L691" t="s">
+        <v>876</v>
+      </c>
+      <c r="M691">
+        <v>36.4</v>
+      </c>
+      <c r="N691" t="s">
+        <v>22</v>
+      </c>
+      <c r="O691" t="s">
+        <v>223</v>
+      </c>
+      <c r="P691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>17235</v>
+      </c>
+      <c r="B692" t="s">
+        <v>838</v>
+      </c>
+      <c r="C692">
+        <v>227.06</v>
+      </c>
+      <c r="D692" s="4">
+        <v>45127.741620370369</v>
+      </c>
+      <c r="E692" t="s">
+        <v>319</v>
+      </c>
+      <c r="F692" t="s">
+        <v>880</v>
+      </c>
+      <c r="G692" t="s">
+        <v>880</v>
+      </c>
+      <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692" t="s">
+        <v>752</v>
+      </c>
+      <c r="J692" t="s">
+        <v>324</v>
+      </c>
+      <c r="K692" t="s">
+        <v>41</v>
+      </c>
+      <c r="L692" t="s">
+        <v>884</v>
+      </c>
+      <c r="M692">
+        <v>16.38</v>
+      </c>
+      <c r="N692" t="s">
+        <v>22</v>
+      </c>
+      <c r="O692" t="s">
+        <v>223</v>
+      </c>
+      <c r="P692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>17236</v>
+      </c>
+      <c r="B693" t="s">
+        <v>839</v>
+      </c>
+      <c r="C693">
+        <v>131.78</v>
+      </c>
+      <c r="D693" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E693" t="s">
+        <v>44</v>
+      </c>
+      <c r="F693" t="s">
+        <v>880</v>
+      </c>
+      <c r="G693" t="s">
+        <v>880</v>
+      </c>
+      <c r="H693">
+        <v>1</v>
+      </c>
+      <c r="I693" t="s">
+        <v>752</v>
+      </c>
+      <c r="J693" t="s">
+        <v>44</v>
+      </c>
+      <c r="K693" t="s">
+        <v>45</v>
+      </c>
+      <c r="L693" t="s">
+        <v>876</v>
+      </c>
+      <c r="M693">
+        <v>10.92</v>
+      </c>
+      <c r="N693" t="s">
+        <v>22</v>
+      </c>
+      <c r="O693" t="s">
+        <v>223</v>
+      </c>
+      <c r="P693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>17237</v>
+      </c>
+      <c r="B694" t="s">
+        <v>840</v>
+      </c>
+      <c r="C694">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="D694" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E694" t="s">
+        <v>44</v>
+      </c>
+      <c r="F694" t="s">
+        <v>880</v>
+      </c>
+      <c r="G694" t="s">
+        <v>880</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
+      </c>
+      <c r="I694" t="s">
+        <v>752</v>
+      </c>
+      <c r="J694" t="s">
+        <v>44</v>
+      </c>
+      <c r="K694" t="s">
+        <v>45</v>
+      </c>
+      <c r="L694" t="s">
+        <v>884</v>
+      </c>
+      <c r="M694">
+        <v>16.38</v>
+      </c>
+      <c r="N694" t="s">
+        <v>22</v>
+      </c>
+      <c r="O694" t="s">
+        <v>223</v>
+      </c>
+      <c r="P694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>17238</v>
+      </c>
+      <c r="B695" t="s">
+        <v>841</v>
+      </c>
+      <c r="C695">
+        <v>150.32</v>
+      </c>
+      <c r="D695" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E695" t="s">
+        <v>44</v>
+      </c>
+      <c r="F695" t="s">
+        <v>880</v>
+      </c>
+      <c r="G695" t="s">
+        <v>880</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+      <c r="I695" t="s">
+        <v>752</v>
+      </c>
+      <c r="J695" t="s">
+        <v>44</v>
+      </c>
+      <c r="K695" t="s">
+        <v>45</v>
+      </c>
+      <c r="L695" t="s">
+        <v>893</v>
+      </c>
+      <c r="M695">
+        <v>10.92</v>
+      </c>
+      <c r="N695" t="s">
+        <v>22</v>
+      </c>
+      <c r="O695" t="s">
+        <v>223</v>
+      </c>
+      <c r="P695">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>17239</v>
+      </c>
+      <c r="B696" t="s">
+        <v>842</v>
+      </c>
+      <c r="C696">
+        <v>122.32</v>
+      </c>
+      <c r="D696" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E696" t="s">
+        <v>44</v>
+      </c>
+      <c r="F696" t="s">
+        <v>880</v>
+      </c>
+      <c r="G696" t="s">
+        <v>880</v>
+      </c>
+      <c r="H696">
+        <v>1</v>
+      </c>
+      <c r="I696" t="s">
+        <v>752</v>
+      </c>
+      <c r="J696" t="s">
+        <v>44</v>
+      </c>
+      <c r="K696" t="s">
+        <v>45</v>
+      </c>
+      <c r="L696" t="s">
+        <v>894</v>
+      </c>
+      <c r="M696">
+        <v>10.92</v>
+      </c>
+      <c r="N696" t="s">
+        <v>22</v>
+      </c>
+      <c r="O696" t="s">
+        <v>223</v>
+      </c>
+      <c r="P696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>17240</v>
+      </c>
+      <c r="B697" t="s">
+        <v>843</v>
+      </c>
+      <c r="C697">
+        <v>158.13999999999999</v>
+      </c>
+      <c r="D697" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E697" t="s">
+        <v>44</v>
+      </c>
+      <c r="F697" t="s">
+        <v>880</v>
+      </c>
+      <c r="G697" t="s">
+        <v>880</v>
+      </c>
+      <c r="H697">
+        <v>1</v>
+      </c>
+      <c r="I697" t="s">
+        <v>752</v>
+      </c>
+      <c r="J697" t="s">
+        <v>44</v>
+      </c>
+      <c r="K697" t="s">
+        <v>45</v>
+      </c>
+      <c r="L697" t="s">
+        <v>877</v>
+      </c>
+      <c r="M697">
+        <v>10.92</v>
+      </c>
+      <c r="N697" t="s">
+        <v>22</v>
+      </c>
+      <c r="O697" t="s">
+        <v>223</v>
+      </c>
+      <c r="P697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>17241</v>
+      </c>
+      <c r="B698" t="s">
+        <v>844</v>
+      </c>
+      <c r="C698">
+        <v>439.28</v>
+      </c>
+      <c r="D698" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E698" t="s">
+        <v>44</v>
+      </c>
+      <c r="F698" t="s">
+        <v>880</v>
+      </c>
+      <c r="G698" t="s">
+        <v>880</v>
+      </c>
+      <c r="H698">
+        <v>1</v>
+      </c>
+      <c r="I698" t="s">
+        <v>752</v>
+      </c>
+      <c r="J698" t="s">
+        <v>44</v>
+      </c>
+      <c r="K698" t="s">
+        <v>45</v>
+      </c>
+      <c r="L698" t="s">
+        <v>876</v>
+      </c>
+      <c r="M698">
+        <v>36.4</v>
+      </c>
+      <c r="N698" t="s">
+        <v>22</v>
+      </c>
+      <c r="O698" t="s">
+        <v>223</v>
+      </c>
+      <c r="P698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>17242</v>
+      </c>
+      <c r="B699" t="s">
+        <v>845</v>
+      </c>
+      <c r="C699">
+        <v>391.79</v>
+      </c>
+      <c r="D699" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E699" t="s">
+        <v>44</v>
+      </c>
+      <c r="F699" t="s">
+        <v>880</v>
+      </c>
+      <c r="G699" t="s">
+        <v>880</v>
+      </c>
+      <c r="H699">
+        <v>1</v>
+      </c>
+      <c r="I699" t="s">
+        <v>752</v>
+      </c>
+      <c r="J699" t="s">
+        <v>44</v>
+      </c>
+      <c r="K699" t="s">
+        <v>45</v>
+      </c>
+      <c r="L699" t="s">
+        <v>895</v>
+      </c>
+      <c r="M699">
+        <v>36.4</v>
+      </c>
+      <c r="N699" t="s">
+        <v>22</v>
+      </c>
+      <c r="O699" t="s">
+        <v>223</v>
+      </c>
+      <c r="P699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>17243</v>
+      </c>
+      <c r="B700" t="s">
+        <v>846</v>
+      </c>
+      <c r="C700">
+        <v>116.19</v>
+      </c>
+      <c r="D700" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E700" t="s">
+        <v>44</v>
+      </c>
+      <c r="F700" t="s">
+        <v>880</v>
+      </c>
+      <c r="G700" t="s">
+        <v>880</v>
+      </c>
+      <c r="H700">
+        <v>1</v>
+      </c>
+      <c r="I700" t="s">
+        <v>752</v>
+      </c>
+      <c r="J700" t="s">
+        <v>44</v>
+      </c>
+      <c r="K700" t="s">
+        <v>45</v>
+      </c>
+      <c r="L700" t="s">
+        <v>896</v>
+      </c>
+      <c r="M700">
+        <v>10.92</v>
+      </c>
+      <c r="N700" t="s">
+        <v>22</v>
+      </c>
+      <c r="O700" t="s">
+        <v>223</v>
+      </c>
+      <c r="P700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>17244</v>
+      </c>
+      <c r="B701" t="s">
+        <v>847</v>
+      </c>
+      <c r="C701">
+        <v>125.55</v>
+      </c>
+      <c r="D701" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E701" t="s">
+        <v>44</v>
+      </c>
+      <c r="F701" t="s">
+        <v>880</v>
+      </c>
+      <c r="G701" t="s">
+        <v>880</v>
+      </c>
+      <c r="H701">
+        <v>1</v>
+      </c>
+      <c r="I701" t="s">
+        <v>752</v>
+      </c>
+      <c r="J701" t="s">
+        <v>44</v>
+      </c>
+      <c r="K701" t="s">
+        <v>45</v>
+      </c>
+      <c r="L701" t="s">
+        <v>897</v>
+      </c>
+      <c r="M701">
+        <v>10.92</v>
+      </c>
+      <c r="N701" t="s">
+        <v>22</v>
+      </c>
+      <c r="O701" t="s">
+        <v>223</v>
+      </c>
+      <c r="P701">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>17245</v>
+      </c>
+      <c r="B702" t="s">
+        <v>848</v>
+      </c>
+      <c r="C702">
+        <v>376.6</v>
+      </c>
+      <c r="D702" s="4">
+        <v>45127.741712962961</v>
+      </c>
+      <c r="E702" t="s">
+        <v>44</v>
+      </c>
+      <c r="F702" t="s">
+        <v>880</v>
+      </c>
+      <c r="G702" t="s">
+        <v>880</v>
+      </c>
+      <c r="H702">
+        <v>1</v>
+      </c>
+      <c r="I702" t="s">
+        <v>752</v>
+      </c>
+      <c r="J702" t="s">
+        <v>44</v>
+      </c>
+      <c r="K702" t="s">
+        <v>45</v>
+      </c>
+      <c r="L702" t="s">
+        <v>879</v>
+      </c>
+      <c r="M702">
+        <v>16.38</v>
+      </c>
+      <c r="N702" t="s">
+        <v>22</v>
+      </c>
+      <c r="O702" t="s">
+        <v>223</v>
+      </c>
+      <c r="P702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>17246</v>
+      </c>
+      <c r="B703" t="s">
+        <v>849</v>
+      </c>
+      <c r="C703">
+        <v>163.82</v>
+      </c>
+      <c r="D703" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E703" t="s">
+        <v>49</v>
+      </c>
+      <c r="F703" t="s">
+        <v>880</v>
+      </c>
+      <c r="G703" t="s">
+        <v>880</v>
+      </c>
+      <c r="H703">
+        <v>1</v>
+      </c>
+      <c r="I703" t="s">
+        <v>752</v>
+      </c>
+      <c r="J703" t="s">
+        <v>50</v>
+      </c>
+      <c r="K703" t="s">
+        <v>51</v>
+      </c>
+      <c r="L703" t="s">
+        <v>893</v>
+      </c>
+      <c r="M703">
+        <v>10.92</v>
+      </c>
+      <c r="N703" t="s">
+        <v>22</v>
+      </c>
+      <c r="O703" t="s">
+        <v>223</v>
+      </c>
+      <c r="P703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>17247</v>
+      </c>
+      <c r="B704" t="s">
+        <v>850</v>
+      </c>
+      <c r="C704">
+        <v>327.7</v>
+      </c>
+      <c r="D704" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E704" t="s">
+        <v>49</v>
+      </c>
+      <c r="F704" t="s">
+        <v>880</v>
+      </c>
+      <c r="G704" t="s">
+        <v>880</v>
+      </c>
+      <c r="H704">
+        <v>1</v>
+      </c>
+      <c r="I704" t="s">
+        <v>752</v>
+      </c>
+      <c r="J704" t="s">
+        <v>50</v>
+      </c>
+      <c r="K704" t="s">
+        <v>51</v>
+      </c>
+      <c r="L704" t="s">
+        <v>893</v>
+      </c>
+      <c r="M704">
+        <v>10.92</v>
+      </c>
+      <c r="N704" t="s">
+        <v>22</v>
+      </c>
+      <c r="O704" t="s">
+        <v>223</v>
+      </c>
+      <c r="P704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>17248</v>
+      </c>
+      <c r="B705" t="s">
+        <v>851</v>
+      </c>
+      <c r="C705">
+        <v>819.47</v>
+      </c>
+      <c r="D705" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E705" t="s">
+        <v>49</v>
+      </c>
+      <c r="F705" t="s">
+        <v>880</v>
+      </c>
+      <c r="G705" t="s">
+        <v>880</v>
+      </c>
+      <c r="H705">
+        <v>1</v>
+      </c>
+      <c r="I705" t="s">
+        <v>752</v>
+      </c>
+      <c r="J705" t="s">
+        <v>50</v>
+      </c>
+      <c r="K705" t="s">
+        <v>51</v>
+      </c>
+      <c r="L705" t="s">
+        <v>893</v>
+      </c>
+      <c r="M705">
+        <v>10.92</v>
+      </c>
+      <c r="N705" t="s">
+        <v>22</v>
+      </c>
+      <c r="O705" t="s">
+        <v>223</v>
+      </c>
+      <c r="P705">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>17249</v>
+      </c>
+      <c r="B706" t="s">
+        <v>852</v>
+      </c>
+      <c r="C706">
+        <v>1638.79</v>
+      </c>
+      <c r="D706" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E706" t="s">
+        <v>49</v>
+      </c>
+      <c r="F706" t="s">
+        <v>880</v>
+      </c>
+      <c r="G706" t="s">
+        <v>880</v>
+      </c>
+      <c r="H706">
+        <v>1</v>
+      </c>
+      <c r="I706" t="s">
+        <v>752</v>
+      </c>
+      <c r="J706" t="s">
+        <v>50</v>
+      </c>
+      <c r="K706" t="s">
+        <v>51</v>
+      </c>
+      <c r="L706" t="s">
+        <v>893</v>
+      </c>
+      <c r="M706">
+        <v>10.92</v>
+      </c>
+      <c r="N706" t="s">
+        <v>22</v>
+      </c>
+      <c r="O706" t="s">
+        <v>223</v>
+      </c>
+      <c r="P706">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>17250</v>
+      </c>
+      <c r="B707" t="s">
+        <v>853</v>
+      </c>
+      <c r="C707">
+        <v>165.72</v>
+      </c>
+      <c r="D707" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E707" t="s">
+        <v>49</v>
+      </c>
+      <c r="F707" t="s">
+        <v>880</v>
+      </c>
+      <c r="G707" t="s">
+        <v>880</v>
+      </c>
+      <c r="H707">
+        <v>1</v>
+      </c>
+      <c r="I707" t="s">
+        <v>752</v>
+      </c>
+      <c r="J707" t="s">
+        <v>50</v>
+      </c>
+      <c r="K707" t="s">
+        <v>51</v>
+      </c>
+      <c r="L707" t="s">
+        <v>893</v>
+      </c>
+      <c r="M707">
+        <v>10.92</v>
+      </c>
+      <c r="N707" t="s">
+        <v>22</v>
+      </c>
+      <c r="O707" t="s">
+        <v>223</v>
+      </c>
+      <c r="P707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>17251</v>
+      </c>
+      <c r="B708" t="s">
+        <v>854</v>
+      </c>
+      <c r="C708">
+        <v>331.32</v>
+      </c>
+      <c r="D708" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E708" t="s">
+        <v>49</v>
+      </c>
+      <c r="F708" t="s">
+        <v>880</v>
+      </c>
+      <c r="G708" t="s">
+        <v>880</v>
+      </c>
+      <c r="H708">
+        <v>1</v>
+      </c>
+      <c r="I708" t="s">
+        <v>752</v>
+      </c>
+      <c r="J708" t="s">
+        <v>50</v>
+      </c>
+      <c r="K708" t="s">
+        <v>51</v>
+      </c>
+      <c r="L708" t="s">
+        <v>893</v>
+      </c>
+      <c r="M708">
+        <v>10.92</v>
+      </c>
+      <c r="N708" t="s">
+        <v>22</v>
+      </c>
+      <c r="O708" t="s">
+        <v>223</v>
+      </c>
+      <c r="P708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>17252</v>
+      </c>
+      <c r="B709" t="s">
+        <v>855</v>
+      </c>
+      <c r="C709">
+        <v>828.29</v>
+      </c>
+      <c r="D709" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E709" t="s">
+        <v>49</v>
+      </c>
+      <c r="F709" t="s">
+        <v>880</v>
+      </c>
+      <c r="G709" t="s">
+        <v>880</v>
+      </c>
+      <c r="H709">
+        <v>1</v>
+      </c>
+      <c r="I709" t="s">
+        <v>752</v>
+      </c>
+      <c r="J709" t="s">
+        <v>50</v>
+      </c>
+      <c r="K709" t="s">
+        <v>51</v>
+      </c>
+      <c r="L709" t="s">
+        <v>893</v>
+      </c>
+      <c r="M709">
+        <v>10.92</v>
+      </c>
+      <c r="N709" t="s">
+        <v>22</v>
+      </c>
+      <c r="O709" t="s">
+        <v>223</v>
+      </c>
+      <c r="P709">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>17253</v>
+      </c>
+      <c r="B710" t="s">
+        <v>856</v>
+      </c>
+      <c r="C710">
+        <v>1656.59</v>
+      </c>
+      <c r="D710" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E710" t="s">
+        <v>49</v>
+      </c>
+      <c r="F710" t="s">
+        <v>880</v>
+      </c>
+      <c r="G710" t="s">
+        <v>880</v>
+      </c>
+      <c r="H710">
+        <v>1</v>
+      </c>
+      <c r="I710" t="s">
+        <v>752</v>
+      </c>
+      <c r="J710" t="s">
+        <v>50</v>
+      </c>
+      <c r="K710" t="s">
+        <v>51</v>
+      </c>
+      <c r="L710" t="s">
+        <v>893</v>
+      </c>
+      <c r="M710">
+        <v>10.92</v>
+      </c>
+      <c r="N710" t="s">
+        <v>22</v>
+      </c>
+      <c r="O710" t="s">
+        <v>223</v>
+      </c>
+      <c r="P710">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>17254</v>
+      </c>
+      <c r="B711" t="s">
+        <v>857</v>
+      </c>
+      <c r="C711">
+        <v>1204.93</v>
+      </c>
+      <c r="D711" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E711" t="s">
+        <v>49</v>
+      </c>
+      <c r="F711" t="s">
+        <v>880</v>
+      </c>
+      <c r="G711" t="s">
+        <v>880</v>
+      </c>
+      <c r="H711">
+        <v>1</v>
+      </c>
+      <c r="I711" t="s">
+        <v>752</v>
+      </c>
+      <c r="J711" t="s">
+        <v>50</v>
+      </c>
+      <c r="K711" t="s">
+        <v>51</v>
+      </c>
+      <c r="L711" t="s">
+        <v>898</v>
+      </c>
+      <c r="M711">
+        <v>36.4</v>
+      </c>
+      <c r="N711" t="s">
+        <v>22</v>
+      </c>
+      <c r="O711" t="s">
+        <v>223</v>
+      </c>
+      <c r="P711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>17255</v>
+      </c>
+      <c r="B712" t="s">
+        <v>858</v>
+      </c>
+      <c r="C712">
+        <v>361.51</v>
+      </c>
+      <c r="D712" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E712" t="s">
+        <v>49</v>
+      </c>
+      <c r="F712" t="s">
+        <v>880</v>
+      </c>
+      <c r="G712" t="s">
+        <v>880</v>
+      </c>
+      <c r="H712">
+        <v>1</v>
+      </c>
+      <c r="I712" t="s">
+        <v>752</v>
+      </c>
+      <c r="J712" t="s">
+        <v>50</v>
+      </c>
+      <c r="K712" t="s">
+        <v>51</v>
+      </c>
+      <c r="L712" t="s">
+        <v>898</v>
+      </c>
+      <c r="M712">
+        <v>10.92</v>
+      </c>
+      <c r="N712" t="s">
+        <v>22</v>
+      </c>
+      <c r="O712" t="s">
+        <v>223</v>
+      </c>
+      <c r="P712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>17256</v>
+      </c>
+      <c r="B713" t="s">
+        <v>859</v>
+      </c>
+      <c r="C713">
+        <v>1807.53</v>
+      </c>
+      <c r="D713" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E713" t="s">
+        <v>49</v>
+      </c>
+      <c r="F713" t="s">
+        <v>880</v>
+      </c>
+      <c r="G713" t="s">
+        <v>880</v>
+      </c>
+      <c r="H713">
+        <v>1</v>
+      </c>
+      <c r="I713" t="s">
+        <v>752</v>
+      </c>
+      <c r="J713" t="s">
+        <v>50</v>
+      </c>
+      <c r="K713" t="s">
+        <v>51</v>
+      </c>
+      <c r="L713" t="s">
+        <v>898</v>
+      </c>
+      <c r="M713">
+        <v>10.92</v>
+      </c>
+      <c r="N713" t="s">
+        <v>22</v>
+      </c>
+      <c r="O713" t="s">
+        <v>223</v>
+      </c>
+      <c r="P713">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>17257</v>
+      </c>
+      <c r="B714" t="s">
+        <v>860</v>
+      </c>
+      <c r="C714">
+        <v>361.51</v>
+      </c>
+      <c r="D714" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E714" t="s">
+        <v>49</v>
+      </c>
+      <c r="F714" t="s">
+        <v>880</v>
+      </c>
+      <c r="G714" t="s">
+        <v>880</v>
+      </c>
+      <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714" t="s">
+        <v>752</v>
+      </c>
+      <c r="J714" t="s">
+        <v>50</v>
+      </c>
+      <c r="K714" t="s">
+        <v>51</v>
+      </c>
+      <c r="L714" t="s">
+        <v>898</v>
+      </c>
+      <c r="M714">
+        <v>10.92</v>
+      </c>
+      <c r="N714" t="s">
+        <v>22</v>
+      </c>
+      <c r="O714" t="s">
+        <v>223</v>
+      </c>
+      <c r="P714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>17258</v>
+      </c>
+      <c r="B715" t="s">
+        <v>861</v>
+      </c>
+      <c r="C715">
+        <v>502.67</v>
+      </c>
+      <c r="D715" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E715" t="s">
+        <v>49</v>
+      </c>
+      <c r="F715" t="s">
+        <v>880</v>
+      </c>
+      <c r="G715" t="s">
+        <v>880</v>
+      </c>
+      <c r="H715">
+        <v>1</v>
+      </c>
+      <c r="I715" t="s">
+        <v>752</v>
+      </c>
+      <c r="J715" t="s">
+        <v>50</v>
+      </c>
+      <c r="K715" t="s">
+        <v>51</v>
+      </c>
+      <c r="L715" t="s">
+        <v>899</v>
+      </c>
+      <c r="M715">
+        <v>36.4</v>
+      </c>
+      <c r="N715" t="s">
+        <v>22</v>
+      </c>
+      <c r="O715" t="s">
+        <v>223</v>
+      </c>
+      <c r="P715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>17259</v>
+      </c>
+      <c r="B716" t="s">
+        <v>862</v>
+      </c>
+      <c r="C716">
+        <v>163.11000000000001</v>
+      </c>
+      <c r="D716" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E716" t="s">
+        <v>49</v>
+      </c>
+      <c r="F716" t="s">
+        <v>880</v>
+      </c>
+      <c r="G716" t="s">
+        <v>880</v>
+      </c>
+      <c r="H716">
+        <v>1</v>
+      </c>
+      <c r="I716" t="s">
+        <v>752</v>
+      </c>
+      <c r="J716" t="s">
+        <v>50</v>
+      </c>
+      <c r="K716" t="s">
+        <v>51</v>
+      </c>
+      <c r="L716" t="s">
+        <v>899</v>
+      </c>
+      <c r="M716">
+        <v>10.92</v>
+      </c>
+      <c r="N716" t="s">
+        <v>22</v>
+      </c>
+      <c r="O716" t="s">
+        <v>223</v>
+      </c>
+      <c r="P716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>17260</v>
+      </c>
+      <c r="B717" t="s">
+        <v>863</v>
+      </c>
+      <c r="C717">
+        <v>140.99</v>
+      </c>
+      <c r="D717" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E717" t="s">
+        <v>49</v>
+      </c>
+      <c r="F717" t="s">
+        <v>880</v>
+      </c>
+      <c r="G717" t="s">
+        <v>880</v>
+      </c>
+      <c r="H717">
+        <v>1</v>
+      </c>
+      <c r="I717" t="s">
+        <v>752</v>
+      </c>
+      <c r="J717" t="s">
+        <v>50</v>
+      </c>
+      <c r="K717" t="s">
+        <v>51</v>
+      </c>
+      <c r="L717" t="s">
+        <v>899</v>
+      </c>
+      <c r="M717">
+        <v>10.92</v>
+      </c>
+      <c r="N717" t="s">
+        <v>22</v>
+      </c>
+      <c r="O717" t="s">
+        <v>223</v>
+      </c>
+      <c r="P717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>17261</v>
+      </c>
+      <c r="B718" t="s">
+        <v>864</v>
+      </c>
+      <c r="C718">
+        <v>422.82</v>
+      </c>
+      <c r="D718" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E718" t="s">
+        <v>49</v>
+      </c>
+      <c r="F718" t="s">
+        <v>880</v>
+      </c>
+      <c r="G718" t="s">
+        <v>880</v>
+      </c>
+      <c r="H718">
+        <v>1</v>
+      </c>
+      <c r="I718" t="s">
+        <v>752</v>
+      </c>
+      <c r="J718" t="s">
+        <v>50</v>
+      </c>
+      <c r="K718" t="s">
+        <v>51</v>
+      </c>
+      <c r="L718" t="s">
+        <v>899</v>
+      </c>
+      <c r="M718">
+        <v>10.92</v>
+      </c>
+      <c r="N718" t="s">
+        <v>22</v>
+      </c>
+      <c r="O718" t="s">
+        <v>223</v>
+      </c>
+      <c r="P718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>17262</v>
+      </c>
+      <c r="B719" t="s">
+        <v>865</v>
+      </c>
+      <c r="C719">
+        <v>810</v>
+      </c>
+      <c r="D719" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E719" t="s">
+        <v>49</v>
+      </c>
+      <c r="F719" t="s">
+        <v>880</v>
+      </c>
+      <c r="G719" t="s">
+        <v>880</v>
+      </c>
+      <c r="H719">
+        <v>1</v>
+      </c>
+      <c r="I719" t="s">
+        <v>752</v>
+      </c>
+      <c r="J719" t="s">
+        <v>50</v>
+      </c>
+      <c r="K719" t="s">
+        <v>51</v>
+      </c>
+      <c r="L719" t="s">
+        <v>884</v>
+      </c>
+      <c r="M719">
+        <v>16.38</v>
+      </c>
+      <c r="N719" t="s">
+        <v>22</v>
+      </c>
+      <c r="O719" t="s">
+        <v>223</v>
+      </c>
+      <c r="P719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>17263</v>
+      </c>
+      <c r="B720" t="s">
+        <v>866</v>
+      </c>
+      <c r="C720">
+        <v>2430.04</v>
+      </c>
+      <c r="D720" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E720" t="s">
+        <v>49</v>
+      </c>
+      <c r="F720" t="s">
+        <v>880</v>
+      </c>
+      <c r="G720" t="s">
+        <v>880</v>
+      </c>
+      <c r="H720">
+        <v>1</v>
+      </c>
+      <c r="I720" t="s">
+        <v>752</v>
+      </c>
+      <c r="J720" t="s">
+        <v>50</v>
+      </c>
+      <c r="K720" t="s">
+        <v>51</v>
+      </c>
+      <c r="L720" t="s">
+        <v>884</v>
+      </c>
+      <c r="M720">
+        <v>16.38</v>
+      </c>
+      <c r="N720" t="s">
+        <v>22</v>
+      </c>
+      <c r="O720" t="s">
+        <v>223</v>
+      </c>
+      <c r="P720">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>17264</v>
+      </c>
+      <c r="B721" t="s">
+        <v>867</v>
+      </c>
+      <c r="C721">
+        <v>304.56</v>
+      </c>
+      <c r="D721" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E721" t="s">
+        <v>49</v>
+      </c>
+      <c r="F721" t="s">
+        <v>880</v>
+      </c>
+      <c r="G721" t="s">
+        <v>880</v>
+      </c>
+      <c r="H721">
+        <v>1</v>
+      </c>
+      <c r="I721" t="s">
+        <v>752</v>
+      </c>
+      <c r="J721" t="s">
+        <v>50</v>
+      </c>
+      <c r="K721" t="s">
+        <v>51</v>
+      </c>
+      <c r="L721" t="s">
+        <v>876</v>
+      </c>
+      <c r="M721">
+        <v>10.92</v>
+      </c>
+      <c r="N721" t="s">
+        <v>22</v>
+      </c>
+      <c r="O721" t="s">
+        <v>223</v>
+      </c>
+      <c r="P721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>17265</v>
+      </c>
+      <c r="B722" t="s">
+        <v>868</v>
+      </c>
+      <c r="C722">
+        <v>945.04</v>
+      </c>
+      <c r="D722" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E722" t="s">
+        <v>49</v>
+      </c>
+      <c r="F722" t="s">
+        <v>880</v>
+      </c>
+      <c r="G722" t="s">
+        <v>880</v>
+      </c>
+      <c r="H722">
+        <v>1</v>
+      </c>
+      <c r="I722" t="s">
+        <v>752</v>
+      </c>
+      <c r="J722" t="s">
+        <v>50</v>
+      </c>
+      <c r="K722" t="s">
+        <v>51</v>
+      </c>
+      <c r="L722" t="s">
+        <v>876</v>
+      </c>
+      <c r="M722">
+        <v>36.4</v>
+      </c>
+      <c r="N722" t="s">
+        <v>22</v>
+      </c>
+      <c r="O722" t="s">
+        <v>223</v>
+      </c>
+      <c r="P722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>17266</v>
+      </c>
+      <c r="B723" t="s">
+        <v>869</v>
+      </c>
+      <c r="C723">
+        <v>336.46</v>
+      </c>
+      <c r="D723" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E723" t="s">
+        <v>49</v>
+      </c>
+      <c r="F723" t="s">
+        <v>880</v>
+      </c>
+      <c r="G723" t="s">
+        <v>880</v>
+      </c>
+      <c r="H723">
+        <v>1</v>
+      </c>
+      <c r="I723" t="s">
+        <v>752</v>
+      </c>
+      <c r="J723" t="s">
+        <v>50</v>
+      </c>
+      <c r="K723" t="s">
+        <v>51</v>
+      </c>
+      <c r="L723" t="s">
+        <v>876</v>
+      </c>
+      <c r="M723">
+        <v>10.92</v>
+      </c>
+      <c r="N723" t="s">
+        <v>22</v>
+      </c>
+      <c r="O723" t="s">
+        <v>223</v>
+      </c>
+      <c r="P723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>17267</v>
+      </c>
+      <c r="B724" t="s">
+        <v>870</v>
+      </c>
+      <c r="C724">
+        <v>1119.17</v>
+      </c>
+      <c r="D724" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E724" t="s">
+        <v>49</v>
+      </c>
+      <c r="F724" t="s">
+        <v>880</v>
+      </c>
+      <c r="G724" t="s">
+        <v>880</v>
+      </c>
+      <c r="H724">
+        <v>1</v>
+      </c>
+      <c r="I724" t="s">
+        <v>752</v>
+      </c>
+      <c r="J724" t="s">
+        <v>50</v>
+      </c>
+      <c r="K724" t="s">
+        <v>51</v>
+      </c>
+      <c r="L724" t="s">
+        <v>876</v>
+      </c>
+      <c r="M724">
+        <v>10.92</v>
+      </c>
+      <c r="N724" t="s">
+        <v>22</v>
+      </c>
+      <c r="O724" t="s">
+        <v>223</v>
+      </c>
+      <c r="P724">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>17272</v>
+      </c>
+      <c r="B725" t="s">
+        <v>871</v>
+      </c>
+      <c r="C725">
+        <v>134.94</v>
+      </c>
+      <c r="D725" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E725" t="s">
+        <v>49</v>
+      </c>
+      <c r="F725" t="s">
+        <v>880</v>
+      </c>
+      <c r="G725" t="s">
+        <v>880</v>
+      </c>
+      <c r="H725">
+        <v>1</v>
+      </c>
+      <c r="I725" t="s">
+        <v>752</v>
+      </c>
+      <c r="J725" t="s">
+        <v>50</v>
+      </c>
+      <c r="K725" t="s">
+        <v>51</v>
+      </c>
+      <c r="L725" t="s">
+        <v>900</v>
+      </c>
+      <c r="M725">
+        <v>10.92</v>
+      </c>
+      <c r="N725" t="s">
+        <v>22</v>
+      </c>
+      <c r="O725" t="s">
+        <v>223</v>
+      </c>
+      <c r="P725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>17273</v>
+      </c>
+      <c r="B726" t="s">
+        <v>872</v>
+      </c>
+      <c r="C726">
+        <v>404.84</v>
+      </c>
+      <c r="D726" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E726" t="s">
+        <v>49</v>
+      </c>
+      <c r="F726" t="s">
+        <v>880</v>
+      </c>
+      <c r="G726" t="s">
+        <v>880</v>
+      </c>
+      <c r="H726">
+        <v>1</v>
+      </c>
+      <c r="I726" t="s">
+        <v>752</v>
+      </c>
+      <c r="J726" t="s">
+        <v>50</v>
+      </c>
+      <c r="K726" t="s">
+        <v>51</v>
+      </c>
+      <c r="L726" t="s">
+        <v>900</v>
+      </c>
+      <c r="M726">
+        <v>10.92</v>
+      </c>
+      <c r="N726" t="s">
+        <v>22</v>
+      </c>
+      <c r="O726" t="s">
+        <v>223</v>
+      </c>
+      <c r="P726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>17274</v>
+      </c>
+      <c r="B727" t="s">
+        <v>873</v>
+      </c>
+      <c r="C727">
+        <v>674.72</v>
+      </c>
+      <c r="D727" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E727" t="s">
+        <v>49</v>
+      </c>
+      <c r="F727" t="s">
+        <v>880</v>
+      </c>
+      <c r="G727" t="s">
+        <v>880</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727" t="s">
+        <v>752</v>
+      </c>
+      <c r="J727" t="s">
+        <v>50</v>
+      </c>
+      <c r="K727" t="s">
+        <v>51</v>
+      </c>
+      <c r="L727" t="s">
+        <v>900</v>
+      </c>
+      <c r="M727">
+        <v>10.92</v>
+      </c>
+      <c r="N727" t="s">
+        <v>22</v>
+      </c>
+      <c r="O727" t="s">
+        <v>223</v>
+      </c>
+      <c r="P727">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>17275</v>
+      </c>
+      <c r="B728" t="s">
+        <v>874</v>
+      </c>
+      <c r="C728">
+        <v>1349.39</v>
+      </c>
+      <c r="D728" s="4">
+        <v>45127.741979166669</v>
+      </c>
+      <c r="E728" t="s">
+        <v>49</v>
+      </c>
+      <c r="F728" t="s">
+        <v>880</v>
+      </c>
+      <c r="G728" t="s">
+        <v>880</v>
+      </c>
+      <c r="H728">
+        <v>1</v>
+      </c>
+      <c r="I728" t="s">
+        <v>752</v>
+      </c>
+      <c r="J728" t="s">
+        <v>50</v>
+      </c>
+      <c r="K728" t="s">
+        <v>51</v>
+      </c>
+      <c r="L728" t="s">
+        <v>900</v>
+      </c>
+      <c r="M728">
+        <v>10.92</v>
+      </c>
+      <c r="N728" t="s">
+        <v>22</v>
+      </c>
+      <c r="O728" t="s">
+        <v>223</v>
+      </c>
+      <c r="P728">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>17287</v>
+      </c>
+      <c r="B729" t="s">
+        <v>875</v>
+      </c>
+      <c r="C729">
+        <v>863.87</v>
+      </c>
+      <c r="D729" s="4">
+        <v>45127.742395833331</v>
+      </c>
+      <c r="E729" t="s">
+        <v>53</v>
+      </c>
+      <c r="F729" t="s">
+        <v>880</v>
+      </c>
+      <c r="G729" t="s">
+        <v>880</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+      <c r="I729" t="s">
+        <v>752</v>
+      </c>
+      <c r="J729" t="s">
+        <v>54</v>
+      </c>
+      <c r="K729" t="s">
+        <v>55</v>
+      </c>
+      <c r="L729" t="s">
+        <v>901</v>
+      </c>
+      <c r="M729">
+        <v>10.92</v>
+      </c>
+      <c r="N729" t="s">
+        <v>22</v>
+      </c>
+      <c r="O729" t="s">
+        <v>223</v>
+      </c>
+      <c r="P729">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>17288</v>
+      </c>
+      <c r="B730" t="s">
+        <v>876</v>
+      </c>
+      <c r="C730">
+        <v>898.45</v>
+      </c>
+      <c r="D730" s="4">
+        <v>45127.74255787037</v>
+      </c>
+      <c r="E730" t="s">
+        <v>57</v>
+      </c>
+      <c r="F730" t="s">
+        <v>880</v>
+      </c>
+      <c r="G730" t="s">
+        <v>880</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730" t="s">
+        <v>752</v>
+      </c>
+      <c r="J730" t="s">
+        <v>58</v>
+      </c>
+      <c r="K730" t="s">
+        <v>59</v>
+      </c>
+      <c r="L730" t="s">
+        <v>876</v>
+      </c>
+      <c r="M730">
+        <v>10.92</v>
+      </c>
+      <c r="N730" t="s">
+        <v>22</v>
+      </c>
+      <c r="O730" t="s">
+        <v>223</v>
+      </c>
+      <c r="P730">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>17289</v>
+      </c>
+      <c r="B731" t="s">
+        <v>877</v>
+      </c>
+      <c r="C731">
+        <v>898.45</v>
+      </c>
+      <c r="D731" s="4">
+        <v>45127.74255787037</v>
+      </c>
+      <c r="E731" t="s">
+        <v>57</v>
+      </c>
+      <c r="F731" t="s">
+        <v>880</v>
+      </c>
+      <c r="G731" t="s">
+        <v>880</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731" t="s">
+        <v>752</v>
+      </c>
+      <c r="J731" t="s">
+        <v>58</v>
+      </c>
+      <c r="K731" t="s">
+        <v>59</v>
+      </c>
+      <c r="L731" t="s">
+        <v>877</v>
+      </c>
+      <c r="M731">
+        <v>10.92</v>
+      </c>
+      <c r="N731" t="s">
+        <v>22</v>
+      </c>
+      <c r="O731" t="s">
+        <v>223</v>
+      </c>
+      <c r="P731">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>17292</v>
+      </c>
+      <c r="B732" t="s">
+        <v>878</v>
+      </c>
+      <c r="C732">
+        <v>1658.19</v>
+      </c>
+      <c r="D732" s="4">
+        <v>45127.74255787037</v>
+      </c>
+      <c r="E732" t="s">
+        <v>57</v>
+      </c>
+      <c r="F732" t="s">
+        <v>880</v>
+      </c>
+      <c r="G732" t="s">
+        <v>880</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732" t="s">
+        <v>752</v>
+      </c>
+      <c r="J732" t="s">
+        <v>58</v>
+      </c>
+      <c r="K732" t="s">
+        <v>59</v>
+      </c>
+      <c r="L732" t="s">
+        <v>878</v>
+      </c>
+      <c r="M732">
+        <v>32.76</v>
+      </c>
+      <c r="N732" t="s">
+        <v>22</v>
+      </c>
+      <c r="O732" t="s">
+        <v>223</v>
+      </c>
+      <c r="P732">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>17293</v>
+      </c>
+      <c r="B733" t="s">
+        <v>879</v>
+      </c>
+      <c r="C733">
+        <v>1384.52</v>
+      </c>
+      <c r="D733" s="4">
+        <v>45127.74255787037</v>
+      </c>
+      <c r="E733" t="s">
+        <v>57</v>
+      </c>
+      <c r="F733" t="s">
+        <v>880</v>
+      </c>
+      <c r="G733" t="s">
+        <v>880</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733" t="s">
+        <v>752</v>
+      </c>
+      <c r="J733" t="s">
+        <v>58</v>
+      </c>
+      <c r="K733" t="s">
+        <v>59</v>
+      </c>
+      <c r="L733" t="s">
+        <v>879</v>
+      </c>
+      <c r="M733">
+        <v>16.38</v>
+      </c>
+      <c r="N733" t="s">
+        <v>22</v>
+      </c>
+      <c r="O733" t="s">
+        <v>223</v>
+      </c>
+      <c r="P733">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P609">
     <sortState ref="A2:Q624">
